--- a/examples/02_reference_turbines/outputs/refturb_output.xlsx
+++ b/examples/02_reference_turbines/outputs/refturb_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1443"/>
+  <dimension ref="A1:D1445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10176,18 +10176,18 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>rotorse.rs.bjs.i_span</t>
+          <t>rotorse.rs.bjs.joint_position</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[20.]</t>
+          <t>[0.7]</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>joint station. [int]</t>
+          <t>nondimensionalized joint position along blade</t>
         </is>
       </c>
     </row>
@@ -33386,77 +33386,113 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>rotorse.rs.bjs.L_transition_joint</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>rotorse.rs.bjs.w_sc_ratio</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr"/>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>[0.46834164]</t>
+          <t>[1.9152]</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>Required length to accommodate spar cap size increase at joint. [float]</t>
+          <t>Ratio of joint-required to nominal spar cap width</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>rotorse.rs.bjs.n_bolt_joint</t>
+          <t>rotorse.rs.bjs.t_sc_ratio</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>[21.28]</t>
+          <t>[3.59223666]</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>Required number of bolts for joint. [float]</t>
+          <t>Ratio of joint-required to nominal spar cap thickness</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>rotorse.rs.bjs.m_add_joint</t>
+          <t>rotorse.rs.bjs.L_transition_joint</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>[944.62608624]</t>
+          <t>[0.46834164]</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>Mass of bolts + inserts minus mass of spar cap cutouts at joint. [float]</t>
+          <t>Required length to accommodate spar cap size increase at joint. [float]</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
+          <t>rotorse.rs.bjs.n_bolt_joint</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr"/>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>[21.28]</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>Required number of bolts for joint. [float]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>rotorse.rs.bjs.m_add_joint</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>[944.62608624]</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>Mass of bolts + inserts minus mass of spar cap cutouts at joint. [float]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
           <t>rotorse.rc.sect_perimeter</t>
         </is>
       </c>
-      <c r="B1228" t="inlineStr">
+      <c r="B1230" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1228" t="inlineStr">
+      <c r="C1230" t="inlineStr">
         <is>
           <t>[14.13639991 14.067995   13.37760306 12.65683147 11.87075318 11.29996378
  11.01634508 10.8028031  10.65533525 10.56454047 10.48707403 10.31284639
@@ -33465,24 +33501,24 @@
   3.92385851  3.36609329  2.79948094  2.22217811  1.63324664  1.03519409]</t>
         </is>
       </c>
-      <c r="D1228" t="inlineStr">
+      <c r="D1230" t="inlineStr">
         <is>
           <t>Perimeter of the section along the blade span</t>
         </is>
       </c>
     </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
         <is>
           <t>rotorse.rc.layer_volume</t>
         </is>
       </c>
-      <c r="B1229" t="inlineStr">
+      <c r="B1231" t="inlineStr">
         <is>
           <t>m**3</t>
         </is>
       </c>
-      <c r="C1229" t="inlineStr">
+      <c r="C1231" t="inlineStr">
         <is>
           <t>[  0.81891207   8.1331339    2.10972041   1.88240942   0.37027748
  -16.82621162   4.91128476   2.15633535   2.43307155   9.31732766
@@ -33490,155 +33526,111 @@
    1.96811402   0.14821459]</t>
         </is>
       </c>
-      <c r="D1229" t="inlineStr">
+      <c r="D1231" t="inlineStr">
         <is>
           <t>Volumes of each layer used in the blade, ignoring the scrap factor</t>
         </is>
       </c>
     </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
         <is>
           <t>rotorse.rc.mat_volume</t>
         </is>
       </c>
-      <c r="B1230" t="inlineStr">
+      <c r="B1232" t="inlineStr">
         <is>
           <t>m**3</t>
         </is>
       </c>
-      <c r="C1230" t="inlineStr">
+      <c r="C1232" t="inlineStr">
         <is>
           <t>[  0.81891207   0.         -16.45593414   3.99212983   0.40984714
   16.04981419  21.53101836   0.           0.           0.        ]</t>
         </is>
       </c>
-      <c r="D1230" t="inlineStr">
+      <c r="D1232" t="inlineStr">
         <is>
           <t>Volumes of each material used in the blade, ignoring the scrap factor. For laminates, this is the wet volume</t>
         </is>
       </c>
     </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
         <is>
           <t>rotorse.rc.mat_mass</t>
         </is>
       </c>
-      <c r="B1231" t="inlineStr">
+      <c r="B1233" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="C1231" t="inlineStr">
+      <c r="C1233" t="inlineStr">
         <is>
           <t>[  1011.35640166    287.68539615 -31924.51223611   6387.40772574
     795.10345651  31136.63952099   2799.0323871       0.
       0.              0.        ]</t>
         </is>
       </c>
-      <c r="D1231" t="inlineStr">
+      <c r="D1233" t="inlineStr">
         <is>
           <t>Masses of each material used in the blade, ignoring the scrap factor. For laminates, this is the wet mass.</t>
         </is>
       </c>
     </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
         <is>
           <t>rotorse.rc.mat_cost</t>
         </is>
       </c>
-      <c r="B1232" t="inlineStr">
+      <c r="B1234" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="C1232" t="inlineStr">
+      <c r="C1234" t="inlineStr">
         <is>
           <t>[  7312.10678398   2079.96541418 -44479.70983959  99894.14343995
    1777.21906957  66348.91729222  36387.42103232   5134.42856522
       0.              0.        ]</t>
         </is>
       </c>
-      <c r="D1232" t="inlineStr">
+      <c r="D1234" t="inlineStr">
         <is>
           <t>Costs of each material used in the blade, ignoring the scrap factor. For laminates, this is the cost of the dry fabric.</t>
         </is>
       </c>
     </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
         <is>
           <t>rotorse.rc.mat_cost_scrap</t>
         </is>
       </c>
-      <c r="B1233" t="inlineStr">
+      <c r="B1235" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="C1233" t="inlineStr">
+      <c r="C1235" t="inlineStr">
         <is>
           <t>[  9140.13347997   2079.96541418 -46703.69533157 104888.85061195
    2043.80193001  76301.25488605  43664.90523878   5134.42856522
       0.              0.        ]</t>
         </is>
       </c>
-      <c r="D1233" t="inlineStr">
+      <c r="D1235" t="inlineStr">
         <is>
           <t>Same as mat_cost, now including the scrap factor.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>rotorse.rc.total_labor_hours</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>[2219.23132657]</t>
-        </is>
-      </c>
-      <c r="D1234" t="inlineStr">
-        <is>
-          <t>Total amount of labor hours per blade.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>rotorse.rc.total_skin_mold_gating_ct</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr">
-        <is>
-          <t>[23.9999]</t>
-        </is>
-      </c>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>Total amount of gating cycle time per blade. This is the cycle time required in the main mold that cannot be parallelized unless the number of molds is increased.</t>
         </is>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_non_gating_ct</t>
+          <t>rotorse.rc.total_labor_hours</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
@@ -33648,63 +33640,63 @@
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>[225.22287087]</t>
+          <t>[2219.23132657]</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>Total amount of non-gating cycle time per blade. This cycle time can happen in parallel.</t>
+          <t>Total amount of labor hours per blade.</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_metallic_parts_cost</t>
+          <t>rotorse.rc.total_skin_mold_gating_ct</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>[7659.72250862]</t>
+          <t>[23.9999]</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>Cost of the metallic parts (bolts, nuts, lightining protection system), excluding the blade joint.</t>
+          <t>Total amount of gating cycle time per blade. This is the cycle time required in the main mold that cannot be parallelized unless the number of molds is increased.</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_consumable_cost_w_waste</t>
+          <t>rotorse.rc.total_non_gating_ct</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>[12265.7221686]</t>
+          <t>[225.22287087]</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
-          <t>Cost of the consumables including the waste.</t>
+          <t>Total amount of non-gating cycle time per blade. This cycle time can happen in parallel.</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_blade_mat_cost_w_waste</t>
+          <t>rotorse.rc.total_metallic_parts_cost</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
@@ -33714,19 +33706,19 @@
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>[266475.08947182]</t>
+          <t>[7659.72250862]</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>Total blade material costs including the waste per blade.</t>
+          <t>Cost of the metallic parts (bolts, nuts, lightining protection system), excluding the blade joint.</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_labor</t>
+          <t>rotorse.rc.total_consumable_cost_w_waste</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
@@ -33736,19 +33728,19 @@
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>[74984.73423427]</t>
+          <t>[12265.7221686]</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>Total labor costs per blade.</t>
+          <t>Cost of the consumables including the waste.</t>
         </is>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_utility</t>
+          <t>rotorse.rc.total_blade_mat_cost_w_waste</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
@@ -33758,19 +33750,19 @@
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>[1178.83057437]</t>
+          <t>[266475.08947182]</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>Total utility costs per blade.</t>
+          <t>Total blade material costs including the waste per blade.</t>
         </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>rotorse.rc.blade_variable_cost</t>
+          <t>rotorse.rc.total_cost_labor</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
@@ -33780,19 +33772,19 @@
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>[342638.65428045]</t>
+          <t>[74984.73423427]</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
-          <t>Total blade variable costs per blade (material, labor, utility).</t>
+          <t>Total labor costs per blade.</t>
         </is>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_equipment</t>
+          <t>rotorse.rc.total_cost_utility</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
@@ -33802,19 +33794,19 @@
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>[14501.0051151]</t>
+          <t>[1178.83057437]</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
-          <t>Total equipment cost per blade.</t>
+          <t>Total utility costs per blade.</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_tooling</t>
+          <t>rotorse.rc.blade_variable_cost</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
@@ -33824,19 +33816,19 @@
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>[22083.00015169]</t>
+          <t>[342638.65428045]</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>Total tooling cost per blade.</t>
+          <t>Total blade variable costs per blade (material, labor, utility).</t>
         </is>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_building</t>
+          <t>rotorse.rc.total_cost_equipment</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
@@ -33846,19 +33838,19 @@
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>[1428.81554829]</t>
+          <t>[14501.0051151]</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>Total builting cost per blade.</t>
+          <t>Total equipment cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_maintenance_cost</t>
+          <t>rotorse.rc.total_cost_tooling</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
@@ -33868,19 +33860,19 @@
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>[11048.26072826]</t>
+          <t>[22083.00015169]</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
-          <t>Total maintenance cost per blade.</t>
+          <t>Total tooling cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_labor_overhead</t>
+          <t>rotorse.rc.total_cost_building</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
@@ -33890,19 +33882,19 @@
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>[22495.42027028]</t>
+          <t>[1428.81554829]</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
-          <t>Total labor overhead cost per blade.</t>
+          <t>Total builting cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>rotorse.rc.cost_capital</t>
+          <t>rotorse.rc.total_maintenance_cost</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -33912,19 +33904,19 @@
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>[22667.97967399]</t>
+          <t>[11048.26072826]</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
-          <t>Cost of capital per blade.</t>
+          <t>Total maintenance cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>rotorse.rc.blade_fixed_cost</t>
+          <t>rotorse.rc.total_labor_overhead</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
@@ -33934,19 +33926,19 @@
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>[94224.48148762]</t>
+          <t>[22495.42027028]</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>Total blade fixed cost per blade (equipment, tooling, building, maintenance, labor, capital).</t>
+          <t>Total labor overhead cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_blade_cost</t>
+          <t>rotorse.rc.cost_capital</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
@@ -33956,65 +33948,73 @@
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>[436863.13576807]</t>
+          <t>[22667.97967399]</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>Total blade cost (variable and fixed)</t>
+          <t>Cost of capital per blade.</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>drivese.hub_E</t>
+          <t>rotorse.rc.blade_fixed_cost</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>[2.1e+11]</t>
-        </is>
-      </c>
-      <c r="D1251" t="inlineStr"/>
+          <t>[94224.48148762]</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>Total blade fixed cost per blade (equipment, tooling, building, maintenance, labor, capital).</t>
+        </is>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>drivese.hub_G</t>
+          <t>rotorse.rc.total_blade_cost</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>[6.5625e+10]</t>
-        </is>
-      </c>
-      <c r="D1252" t="inlineStr"/>
+          <t>[436863.13576807]</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>Total blade cost (variable and fixed)</t>
+        </is>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>drivese.hub_rho</t>
+          <t>drivese.hub_E</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>kg/m**3</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>[8500.]</t>
+          <t>[2.1e+11]</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
@@ -34022,7 +34022,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>drivese.hub_Xy</t>
+          <t>drivese.hub_G</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
@@ -34032,7 +34032,7 @@
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>[4.5e+08]</t>
+          <t>[6.5625e+10]</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
@@ -34040,13 +34040,17 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>drivese.hub_wohler_exp</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr"/>
+          <t>drivese.hub_rho</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>kg/m**3</t>
+        </is>
+      </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[8500.]</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
@@ -34054,13 +34058,17 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>drivese.hub_wohler_A</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr"/>
+          <t>drivese.hub_Xy</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>[3.6e+08]</t>
+          <t>[4.5e+08]</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
@@ -34068,17 +34076,13 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>drivese.hub_mat_cost</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
+          <t>drivese.hub_wohler_exp</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr"/>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
@@ -34086,17 +34090,13 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>drivese.spinner_rho</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+          <t>drivese.hub_wohler_A</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr"/>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>[1940.]</t>
+          <t>[3.6e+08]</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
@@ -34104,17 +34104,17 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>drivese.spinner_Xt</t>
+          <t>drivese.hub_mat_cost</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>[46210000.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
@@ -34122,17 +34122,17 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>drivese.spinner_mat_cost</t>
+          <t>drivese.spinner_rho</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>[3.]</t>
+          <t>[1940.]</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
@@ -34140,7 +34140,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>drivese.lss_Xt</t>
+          <t>drivese.spinner_Xt</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
@@ -34150,7 +34150,7 @@
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>[3.6e+08]</t>
+          <t>[46210000.]</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
@@ -34158,13 +34158,17 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>drivese.lss_wohler_exp</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
+          <t>drivese.spinner_mat_cost</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr"/>
@@ -34172,10 +34176,14 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>drivese.lss_wohler_A</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
+          <t>drivese.lss_Xt</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="C1263" t="inlineStr">
         <is>
           <t>[3.6e+08]</t>
@@ -34186,17 +34194,13 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>drivese.lss_cost</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
+          <t>drivese.lss_wohler_exp</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr"/>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
@@ -34204,14 +34208,10 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>drivese.hss_Xt</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
+          <t>drivese.lss_wohler_A</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr"/>
       <c r="C1265" t="inlineStr">
         <is>
           <t>[3.6e+08]</t>
@@ -34222,13 +34222,17 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>drivese.hss_wohler_exp</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr"/>
+          <t>drivese.lss_cost</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
@@ -34236,10 +34240,14 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>drivese.hss_wohler_A</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr"/>
+          <t>drivese.hss_Xt</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="C1267" t="inlineStr">
         <is>
           <t>[3.6e+08]</t>
@@ -34250,17 +34258,13 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>drivese.hss_cost</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
+          <t>drivese.hss_wohler_exp</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr"/>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
@@ -34268,17 +34272,13 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>drivese.bedplate_mat_cost</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
+          <t>drivese.hss_wohler_A</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr"/>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[3.6e+08]</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
@@ -34286,17 +34286,17 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>drivese.constr_hub_diameter</t>
+          <t>drivese.hss_cost</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>[-0.23538291]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
@@ -34304,17 +34304,17 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>drivese.spinner.spinner_diameter</t>
+          <t>drivese.bedplate_mat_cost</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>[7.5]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
@@ -34322,17 +34322,17 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>drivese.hub_system_cost</t>
+          <t>drivese.constr_hub_diameter</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>[6525.81089873]</t>
+          <t>[-0.23538291]</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
@@ -34340,13 +34340,17 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>drivese.stage_ratios</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr"/>
+          <t>drivese.spinner.spinner_diameter</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>[3.39701589 3.21947225 8.84735695]</t>
+          <t>[7.5]</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
@@ -34354,17 +34358,17 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>drivese.D_gearbox</t>
+          <t>drivese.hub_system_cost</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>[2.3175]</t>
+          <t>[6525.81089873]</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
@@ -34372,17 +34376,13 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>drivese.L_lss</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>drivese.stage_ratios</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr"/>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>[3.1]</t>
+          <t>[3.39701589 3.21947225 8.84735695]</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
@@ -34390,7 +34390,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>drivese.constr_length</t>
+          <t>drivese.D_gearbox</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
@@ -34400,7 +34400,7 @@
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>[2.27743025]</t>
+          <t>[2.3175]</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
@@ -34408,17 +34408,17 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>drivese.bear1.mb_max_defl_ang</t>
+          <t>drivese.L_lss</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>rad</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>[0.00872665]</t>
+          <t>[3.1]</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
@@ -34426,17 +34426,17 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>drivese.bear1.mb_mass</t>
+          <t>drivese.constr_length</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>[1480.55356999]</t>
+          <t>[2.27743025]</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
@@ -34444,17 +34444,17 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>drivese.bear1.mb_I</t>
+          <t>drivese.bear1.mb_max_defl_ang</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>[134.02030141  70.60698288  70.60698288]</t>
+          <t>[0.00872665]</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
@@ -34462,17 +34462,17 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>drivese.bear2.mb_max_defl_ang</t>
+          <t>drivese.bear1.mb_mass</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>rad</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>[0.078]</t>
+          <t>[1480.55356999]</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
@@ -34480,17 +34480,17 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>drivese.bear2.mb_mass</t>
+          <t>drivese.bear1.mb_I</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>[1349.62411874]</t>
+          <t>[134.02030141  70.60698288  70.60698288]</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
@@ -34498,17 +34498,17 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>drivese.bear2.mb_I</t>
+          <t>drivese.bear2.mb_max_defl_ang</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>[118.75932276  61.52201828  61.52201828]</t>
+          <t>[0.078]</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
@@ -34516,15 +34516,51 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
+          <t>drivese.bear2.mb_mass</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>[1349.62411874]</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>drivese.bear2.mb_I</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>kg*m**2</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>[118.75932276  61.52201828  61.52201828]</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
           <t>drivese.hss_rpm</t>
         </is>
       </c>
-      <c r="B1283" t="inlineStr">
+      <c r="B1285" t="inlineStr">
         <is>
           <t>rpm</t>
         </is>
       </c>
-      <c r="C1283" t="inlineStr">
+      <c r="C1285" t="inlineStr">
         <is>
           <t>[  9.676       49.36699606  89.05799213 128.74898819 168.43998425
  208.13098031 247.82197638 287.51297244 327.2039685  366.89496456
@@ -34532,63 +34568,27 @@
  605.04094094 644.731937   684.42293306 724.11392913 763.80492519]</t>
         </is>
       </c>
-      <c r="D1283" t="inlineStr"/>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
+      <c r="D1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
         <is>
           <t>drivese.generator_efficiency</t>
         </is>
       </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr">
+      <c r="B1286" t="inlineStr"/>
+      <c r="C1286" t="inlineStr">
         <is>
           <t>[0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95
  0.95 0.95 0.95 0.95 0.95 0.95]</t>
         </is>
       </c>
-      <c r="D1284" t="inlineStr"/>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>drivese.mean_bearing_mass</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1285" t="inlineStr">
-        <is>
-          <t>[1415.08884437]</t>
-        </is>
-      </c>
-      <c r="D1285" t="inlineStr"/>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>drivese.total_bedplate_mass</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1286" t="inlineStr">
-        <is>
-          <t>[30830.43254124]</t>
-        </is>
-      </c>
       <c r="D1286" t="inlineStr"/>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>drivese.above_yaw_mass</t>
+          <t>drivese.mean_bearing_mass</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
@@ -34598,7 +34598,7 @@
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>[214978.26565397]</t>
+          <t>[1415.08884437]</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
@@ -34606,17 +34606,17 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>drivese.above_yaw_cm</t>
+          <t>drivese.total_bedplate_mass</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>[ 0.07963657 -0.1461323   1.50209284]</t>
+          <t>[30830.43254124]</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr"/>
@@ -34624,110 +34624,110 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
+          <t>drivese.above_yaw_mass</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>[214978.26565397]</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>drivese.above_yaw_cm</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>[ 0.07963657 -0.1461323   1.50209284]</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
           <t>drivese.nacelle_I</t>
         </is>
       </c>
-      <c r="B1289" t="inlineStr">
+      <c r="B1291" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1289" t="inlineStr">
+      <c r="C1291" t="inlineStr">
         <is>
           <t>[1063408.96931857 1571762.89300829 2138337.28261031   -2314.28703775
   -67464.44210134    4884.86169794]</t>
         </is>
       </c>
-      <c r="D1289" t="inlineStr"/>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
+      <c r="D1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
         <is>
           <t>drivese.above_yaw_I</t>
         </is>
       </c>
-      <c r="B1290" t="inlineStr">
+      <c r="B1292" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1290" t="inlineStr">
+      <c r="C1292" t="inlineStr">
         <is>
           <t>[ 1.02670889e+06  1.53530471e+06  2.13789100e+06 -2.50180429e+03
  -6.55369537e+04  1.34793993e+03]</t>
         </is>
       </c>
-      <c r="D1290" t="inlineStr"/>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
+      <c r="D1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
         <is>
           <t>drivese.above_yaw_I_TT</t>
         </is>
       </c>
-      <c r="B1291" t="inlineStr">
+      <c r="B1293" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1291" t="inlineStr">
+      <c r="C1293" t="inlineStr">
         <is>
           <t>[1516351.45655524 2021719.88560007 2143845.17478853       0.
   -91252.98097583   48536.59100423]</t>
         </is>
       </c>
-      <c r="D1291" t="inlineStr"/>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>drivese.rotor_mass</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1292" t="inlineStr">
-        <is>
-          <t>[189068.24860478]</t>
-        </is>
-      </c>
-      <c r="D1292" t="inlineStr"/>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>drivese.rna_mass</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1293" t="inlineStr">
-        <is>
-          <t>[423150.83238293]</t>
-        </is>
-      </c>
       <c r="D1293" t="inlineStr"/>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>drivese.rna_cm</t>
+          <t>drivese.rotor_mass</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>[-5.23998576 -0.0742413   2.09654282]</t>
+          <t>[189068.24860478]</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr"/>
@@ -34735,70 +34735,106 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
+          <t>drivese.rna_mass</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>[423150.83238293]</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>drivese.rna_cm</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>[-5.23998576 -0.0742413   2.09654282]</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
           <t>drivese.rna_I_TT</t>
         </is>
       </c>
-      <c r="B1295" t="inlineStr">
+      <c r="B1297" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1295" t="inlineStr">
+      <c r="C1297" t="inlineStr">
         <is>
           <t>[ 2.16092707e+08  1.36852860e+08  1.35813391e+08 -1.66639598e+01
  -8.45747612e+05  4.82222779e+04]</t>
         </is>
       </c>
-      <c r="D1295" t="inlineStr"/>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>drivese.torq_deflection</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1296" t="inlineStr">
-        <is>
-          <t>[0.00199019]</t>
-        </is>
-      </c>
-      <c r="D1296" t="inlineStr"/>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>drivese.torq_rotation</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
-      <c r="C1297" t="inlineStr">
-        <is>
-          <t>[2.97932014e-06]</t>
-        </is>
-      </c>
       <c r="D1297" t="inlineStr"/>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
+          <t>drivese.torq_deflection</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>[0.00199019]</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>drivese.torq_rotation</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>[2.97932014e-06]</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
           <t>drivese.lss_axial_stress</t>
         </is>
       </c>
-      <c r="B1298" t="inlineStr">
+      <c r="B1300" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1298" t="inlineStr">
+      <c r="C1300" t="inlineStr">
         <is>
           <t>[[3.79442275e+06]
  [2.30425773e+08]
@@ -34806,20 +34842,20 @@
  [2.52279697e+08]]</t>
         </is>
       </c>
-      <c r="D1298" t="inlineStr"/>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
+      <c r="D1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
         <is>
           <t>drivese.lss_shear_stress</t>
         </is>
       </c>
-      <c r="B1299" t="inlineStr">
+      <c r="B1301" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1299" t="inlineStr">
+      <c r="C1301" t="inlineStr">
         <is>
           <t>[[1.00720901e+09]
  [1.00811611e+09]
@@ -34827,16 +34863,16 @@
  [1.00431251e+09]]</t>
         </is>
       </c>
-      <c r="D1299" t="inlineStr"/>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
+      <c r="D1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
         <is>
           <t>drivese.constr_lss_vonmises</t>
         </is>
       </c>
-      <c r="B1300" t="inlineStr"/>
-      <c r="C1300" t="inlineStr">
+      <c r="B1302" t="inlineStr"/>
+      <c r="C1302" t="inlineStr">
         <is>
           <t>[[6.80371107]
  [6.86886254]
@@ -34844,156 +34880,120 @@
  [6.85510393]]</t>
         </is>
       </c>
-      <c r="D1300" t="inlineStr"/>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>drivese.lss_axial_load2stress</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr">
-        <is>
-          <t>m**2</t>
-        </is>
-      </c>
-      <c r="C1301" t="inlineStr">
-        <is>
-          <t>[ 3.82436907  0.          0.          0.         53.02402191 53.02402191]</t>
-        </is>
-      </c>
-      <c r="D1301" t="inlineStr"/>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>drivese.lss_shear_load2stress</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr">
-        <is>
-          <t>m**2</t>
-        </is>
-      </c>
-      <c r="C1302" t="inlineStr">
-        <is>
-          <t>[ 0.          4.29987073  4.29987073 26.51201095  0.          0.        ]</t>
-        </is>
-      </c>
       <c r="D1302" t="inlineStr"/>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
+          <t>drivese.lss_axial_load2stress</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>m**2</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>[ 3.82436907  0.          0.          0.         53.02402191 53.02402191]</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>drivese.lss_shear_load2stress</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>m**2</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>[ 0.          4.29987073  4.29987073 26.51201095  0.          0.        ]</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
           <t>drivese.hss_axial_stress</t>
         </is>
       </c>
-      <c r="B1303" t="inlineStr">
+      <c r="B1305" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1303" t="inlineStr">
+      <c r="C1305" t="inlineStr">
         <is>
           <t>[[7.39868557e+05]
  [1.59680502e-02]]</t>
         </is>
       </c>
-      <c r="D1303" t="inlineStr"/>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
+      <c r="D1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
         <is>
           <t>drivese.hss_shear_stress</t>
         </is>
       </c>
-      <c r="B1304" t="inlineStr">
+      <c r="B1306" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1304" t="inlineStr">
+      <c r="C1306" t="inlineStr">
         <is>
           <t>[[86122522.04148784]
  [83221435.68211088]]</t>
         </is>
       </c>
-      <c r="D1304" t="inlineStr"/>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
+      <c r="D1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
         <is>
           <t>drivese.hss_bending_stress</t>
         </is>
       </c>
-      <c r="B1305" t="inlineStr">
+      <c r="B1307" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1305" t="inlineStr">
+      <c r="C1307" t="inlineStr">
         <is>
           <t>[[0.]
  [0.]]</t>
         </is>
       </c>
-      <c r="D1305" t="inlineStr"/>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
+      <c r="D1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
         <is>
           <t>drivese.constr_hss_vonmises</t>
         </is>
       </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr">
+      <c r="B1308" t="inlineStr"/>
+      <c r="C1308" t="inlineStr">
         <is>
           <t>[[0.58176463]
  [0.56216064]]</t>
         </is>
       </c>
-      <c r="D1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>drivese.mb1_deflection</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1307" t="inlineStr">
-        <is>
-          <t>[0.00014707]</t>
-        </is>
-      </c>
-      <c r="D1307" t="inlineStr"/>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>drivese.mb2_deflection</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1308" t="inlineStr">
-        <is>
-          <t>[9.45778522e-05]</t>
-        </is>
-      </c>
       <c r="D1308" t="inlineStr"/>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>drivese.bedplate_deflection</t>
+          <t>drivese.mb1_deflection</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
@@ -35003,7 +35003,7 @@
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>[0.00012608]</t>
+          <t>[0.00014707]</t>
         </is>
       </c>
       <c r="D1309" t="inlineStr"/>
@@ -35011,17 +35011,17 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>drivese.mb1_rotation</t>
+          <t>drivese.mb2_deflection</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>rad</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>[4.42984755e-05]</t>
+          <t>[9.45778522e-05]</t>
         </is>
       </c>
       <c r="D1310" t="inlineStr"/>
@@ -35029,17 +35029,17 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>drivese.mb2_rotation</t>
+          <t>drivese.bedplate_deflection</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>rad</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>[5.49890704e-05]</t>
+          <t>[0.00012608]</t>
         </is>
       </c>
       <c r="D1311" t="inlineStr"/>
@@ -35047,7 +35047,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>drivese.bedplate_rotation</t>
+          <t>drivese.mb1_rotation</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="C1312" t="inlineStr">
         <is>
-          <t>[7.35567255e-05]</t>
+          <t>[4.42984755e-05]</t>
         </is>
       </c>
       <c r="D1312" t="inlineStr"/>
@@ -35065,55 +35065,91 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
+          <t>drivese.mb2_rotation</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>[5.49890704e-05]</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>drivese.bedplate_rotation</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>[7.35567255e-05]</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
           <t>drivese.base_F</t>
         </is>
       </c>
-      <c r="B1313" t="inlineStr">
+      <c r="B1315" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1313" t="inlineStr">
+      <c r="C1315" t="inlineStr">
         <is>
           <t>[[ 2199361.42303206]
  [   41405.99511701]
  [-2470893.66004019]]</t>
         </is>
       </c>
-      <c r="D1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
+      <c r="D1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
         <is>
           <t>drivese.base_M</t>
         </is>
       </c>
-      <c r="B1314" t="inlineStr">
+      <c r="B1316" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1314" t="inlineStr">
+      <c r="C1316" t="inlineStr">
         <is>
           <t>[[15682220.22280832]
  [ 2129479.04615548]
  [ 1127332.25769337]]</t>
         </is>
       </c>
-      <c r="D1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
+      <c r="D1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
         <is>
           <t>drivese.bedplate_axial_stress</t>
         </is>
       </c>
-      <c r="B1315" t="inlineStr">
+      <c r="B1317" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1315" t="inlineStr">
+      <c r="C1317" t="inlineStr">
         <is>
           <t>[[6.27383944e+04]
  [8.24469070e+05]
@@ -35139,20 +35175,20 @@
  [2.08415264e+00]]</t>
         </is>
       </c>
-      <c r="D1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
+      <c r="D1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
         <is>
           <t>drivese.bedplate_shear_stress</t>
         </is>
       </c>
-      <c r="B1316" t="inlineStr">
+      <c r="B1318" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1316" t="inlineStr">
+      <c r="C1318" t="inlineStr">
         <is>
           <t>[[3.16206874e+05]
  [6.54100876e+05]
@@ -35178,20 +35214,20 @@
  [1.33824501e+00]]</t>
         </is>
       </c>
-      <c r="D1316" t="inlineStr"/>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
+      <c r="D1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
         <is>
           <t>drivese.bedplate_bending_stress</t>
         </is>
       </c>
-      <c r="B1317" t="inlineStr">
+      <c r="B1319" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1317" t="inlineStr">
+      <c r="C1319" t="inlineStr">
         <is>
           <t>[[0.]
  [0.]
@@ -35217,16 +35253,16 @@
  [0.]]</t>
         </is>
       </c>
-      <c r="D1317" t="inlineStr"/>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
+      <c r="D1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
         <is>
           <t>drivese.constr_bedplate_vonmises</t>
         </is>
       </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr">
+      <c r="B1320" t="inlineStr"/>
+      <c r="C1320" t="inlineStr">
         <is>
           <t>[[2.14994541e-03]
  [5.46458491e-03]
@@ -35252,50 +35288,18 @@
  [1.21567394e-08]]</t>
         </is>
       </c>
-      <c r="D1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>drivese.constr_mb1_defl</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr">
-        <is>
-          <t>[0.00507623]</t>
-        </is>
-      </c>
-      <c r="D1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>drivese.constr_mb2_defl</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr">
-        <is>
-          <t>[0.00070499]</t>
-        </is>
-      </c>
       <c r="D1320" t="inlineStr"/>
     </row>
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>drivese.drivetrain_spring_constant</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr">
-        <is>
-          <t>N*m/rad</t>
-        </is>
-      </c>
+          <t>drivese.constr_mb1_defl</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr"/>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>[2.30170307e+08]</t>
+          <t>[0.00507623]</t>
         </is>
       </c>
       <c r="D1321" t="inlineStr"/>
@@ -35303,17 +35307,13 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>drivese.drivetrain_damping_coefficient</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>N*m*s/rad</t>
-        </is>
-      </c>
+          <t>drivese.constr_mb2_defl</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr"/>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>[2216342.82471652]</t>
+          <t>[0.00070499]</t>
         </is>
       </c>
       <c r="D1322" t="inlineStr"/>
@@ -35321,401 +35321,393 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
+          <t>drivese.drivetrain_spring_constant</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>N*m/rad</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>[2.30170307e+08]</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>drivese.drivetrain_damping_coefficient</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>N*m*s/rad</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>[2216342.82471652]</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
           <t>towerse.sigma_ult</t>
         </is>
       </c>
-      <c r="B1323" t="inlineStr">
+      <c r="B1325" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1323" t="inlineStr">
+      <c r="C1325" t="inlineStr">
         <is>
           <t>[3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08
  3.6e+08]</t>
         </is>
       </c>
-      <c r="D1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
+      <c r="D1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
         <is>
           <t>towerse.wohler_exp</t>
         </is>
       </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr">
+      <c r="B1326" t="inlineStr"/>
+      <c r="C1326" t="inlineStr">
         <is>
           <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
-      <c r="D1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
+      <c r="D1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
         <is>
           <t>towerse.wohler_A</t>
         </is>
       </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr">
+      <c r="B1327" t="inlineStr"/>
+      <c r="C1327" t="inlineStr">
         <is>
           <t>[3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08
  3.6e+08]</t>
         </is>
       </c>
-      <c r="D1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>towerse.z_start</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1326" t="inlineStr">
-        <is>
-          <t>[0.]</t>
-        </is>
-      </c>
-      <c r="D1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>towerse.height_constraint</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1327" t="inlineStr">
-        <is>
-          <t>[3.]</t>
-        </is>
-      </c>
       <c r="D1327" t="inlineStr"/>
     </row>
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
+          <t>towerse.z_start</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>towerse.height_constraint</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>[3.]</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
           <t>towerse.unit_cost_full</t>
         </is>
       </c>
-      <c r="B1328" t="inlineStr">
+      <c r="B1330" t="inlineStr">
         <is>
           <t>USD/kg</t>
         </is>
       </c>
-      <c r="C1328" t="inlineStr">
+      <c r="C1330" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
+      <c r="D1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
         <is>
           <t>towerse.outfitting_full</t>
         </is>
       </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr">
+      <c r="B1331" t="inlineStr"/>
+      <c r="C1331" t="inlineStr">
         <is>
           <t>[1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07
  1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07
  1.07 1.07]</t>
         </is>
       </c>
-      <c r="D1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
+      <c r="D1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
         <is>
           <t>towerse.sec_loc</t>
         </is>
       </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr">
+      <c r="B1332" t="inlineStr"/>
+      <c r="C1332" t="inlineStr">
         <is>
           <t>[0.         0.11111111 0.22222222 0.33333333 0.44444444 0.55555556
  0.66666667 0.77777778 0.88888889 1.        ]</t>
         </is>
       </c>
-      <c r="D1330" t="inlineStr">
+      <c r="D1332" t="inlineStr">
         <is>
           <t>normalized sectional location</t>
-        </is>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>towerse.str_tw</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="C1331" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1331" t="inlineStr">
-        <is>
-          <t>structural twist of section</t>
-        </is>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>towerse.tw_iner</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="C1332" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1332" t="inlineStr">
-        <is>
-          <t>inertial twist of section</t>
         </is>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
+          <t>towerse.str_tw</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>deg</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>structural twist of section</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>towerse.tw_iner</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>deg</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>inertial twist of section</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
           <t>towerse.mass_den</t>
         </is>
       </c>
-      <c r="B1333" t="inlineStr">
+      <c r="B1335" t="inlineStr">
         <is>
           <t>kg/m</t>
         </is>
       </c>
-      <c r="C1333" t="inlineStr">
+      <c r="C1335" t="inlineStr">
         <is>
           <t>[10504.12240476  9396.43917809  8336.25684766  7405.36118517
   6538.2923024   5673.96098713  4819.45124107  4016.76966399
   3329.74453874  2933.84686598]</t>
         </is>
       </c>
-      <c r="D1333" t="inlineStr">
+      <c r="D1335" t="inlineStr">
         <is>
           <t>sectional mass per unit length</t>
         </is>
       </c>
     </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
         <is>
           <t>towerse.foreaft_iner</t>
         </is>
       </c>
-      <c r="B1334" t="inlineStr">
+      <c r="B1336" t="inlineStr">
         <is>
           <t>kg*m</t>
         </is>
       </c>
-      <c r="C1334" t="inlineStr">
+      <c r="C1336" t="inlineStr">
         <is>
           <t>[43273.97338261 38795.7463798  34490.76577143 30695.61083266
  27147.92246836 23599.1979211  20078.78786873 16761.02229322
  13659.2124316  11106.50396931]</t>
         </is>
       </c>
-      <c r="D1334" t="inlineStr">
+      <c r="D1336" t="inlineStr">
         <is>
           <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
         <is>
           <t>towerse.sideside_iner</t>
         </is>
       </c>
-      <c r="B1335" t="inlineStr">
+      <c r="B1337" t="inlineStr">
         <is>
           <t>kg*m</t>
         </is>
       </c>
-      <c r="C1335" t="inlineStr">
+      <c r="C1337" t="inlineStr">
         <is>
           <t>[43273.97338261 38795.7463798  34490.76577143 30695.61083266
  27147.92246836 23599.1979211  20078.78786873 16761.02229322
  13659.2124316  11106.50396931]</t>
         </is>
       </c>
-      <c r="D1335" t="inlineStr">
+      <c r="D1337" t="inlineStr">
         <is>
           <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
         <is>
           <t>towerse.foreaft_stff</t>
         </is>
       </c>
-      <c r="B1336" t="inlineStr">
+      <c r="B1338" t="inlineStr">
         <is>
           <t>N*m**2</t>
         </is>
       </c>
-      <c r="C1336" t="inlineStr">
+      <c r="C1338" t="inlineStr">
         <is>
           <t>[1.06912170e+12 9.58483146e+11 8.52124801e+11 7.58362150e+11
  6.70713379e+11 5.83039007e+11 4.96064171e+11 4.14095845e+11
  3.37462895e+11 2.74395980e+11]</t>
         </is>
       </c>
-      <c r="D1336" t="inlineStr">
+      <c r="D1338" t="inlineStr">
         <is>
           <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
         <is>
           <t>towerse.sideside_stff</t>
         </is>
       </c>
-      <c r="B1337" t="inlineStr">
+      <c r="B1339" t="inlineStr">
         <is>
           <t>N*m**2</t>
         </is>
       </c>
-      <c r="C1337" t="inlineStr">
+      <c r="C1339" t="inlineStr">
         <is>
           <t>[1.06912170e+12 9.58483146e+11 8.52124801e+11 7.58362150e+11
  6.70713379e+11 5.83039007e+11 4.96064171e+11 4.14095845e+11
  3.37462895e+11 2.74395980e+11]</t>
         </is>
       </c>
-      <c r="D1337" t="inlineStr">
+      <c r="D1339" t="inlineStr">
         <is>
           <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
         <is>
           <t>towerse.tor_stff</t>
         </is>
       </c>
-      <c r="B1338" t="inlineStr">
+      <c r="B1340" t="inlineStr">
         <is>
           <t>N*m**2</t>
         </is>
       </c>
-      <c r="C1338" t="inlineStr">
+      <c r="C1340" t="inlineStr">
         <is>
           <t>[6.68201060e+11 5.99051966e+11 5.32578001e+11 4.73976344e+11
  4.19195862e+11 3.64399380e+11 3.10040107e+11 2.58809903e+11
  2.10914310e+11 1.71497488e+11]</t>
         </is>
       </c>
-      <c r="D1338" t="inlineStr">
+      <c r="D1340" t="inlineStr">
         <is>
           <t>sectional torsional stiffness</t>
         </is>
       </c>
     </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
         <is>
           <t>towerse.axial_stff</t>
         </is>
       </c>
-      <c r="B1339" t="inlineStr">
+      <c r="B1341" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1339" t="inlineStr">
+      <c r="C1341" t="inlineStr">
         <is>
           <t>[2.42536086e+11 2.16960113e+11 1.92480917e+11 1.70986899e+11
  1.50966617e+11 1.31009545e+11 1.11279248e+11 9.27456437e+10
  7.68825017e+10 6.77413790e+10]</t>
         </is>
       </c>
-      <c r="D1339" t="inlineStr">
+      <c r="D1341" t="inlineStr">
         <is>
           <t>sectional axial stiffness</t>
-        </is>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>towerse.cg_offst</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1340" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1340" t="inlineStr">
-        <is>
-          <t>offset from the sectional center of mass</t>
-        </is>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>towerse.sc_offst</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1341" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1341" t="inlineStr">
-        <is>
-          <t>offset from the sectional shear center</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>towerse.tc_offst</t>
+          <t>towerse.cg_offst</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -35730,22 +35722,66 @@
       </c>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>offset from the sectional tension center</t>
+          <t>offset from the sectional center of mass</t>
         </is>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
+          <t>towerse.sc_offst</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>offset from the sectional shear center</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>towerse.tc_offst</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>offset from the sectional tension center</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
           <t>towerse.axial_load2stress</t>
         </is>
       </c>
-      <c r="B1343" t="inlineStr">
+      <c r="B1345" t="inlineStr">
         <is>
           <t>m**2</t>
         </is>
       </c>
-      <c r="C1343" t="inlineStr">
+      <c r="C1345" t="inlineStr">
         <is>
           <t>[[0.         0.         0.86585053 0.58926875 0.58926875 0.        ]
  [0.         0.         0.96791985 0.65728855 0.65728855 0.        ]
@@ -35759,20 +35795,20 @@
  [0.         0.         3.10002547 2.1851949  2.1851949  0.        ]]</t>
         </is>
       </c>
-      <c r="D1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
+      <c r="D1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
         <is>
           <t>towerse.shear_load2stress</t>
         </is>
       </c>
-      <c r="B1344" t="inlineStr">
+      <c r="B1346" t="inlineStr">
         <is>
           <t>m**2</t>
         </is>
       </c>
-      <c r="C1344" t="inlineStr">
+      <c r="C1346" t="inlineStr">
         <is>
           <t>[[1.41927333 1.41927333 0.         0.         0.         0.29463437]
  [1.5874111  1.5874111  0.         0.         0.         0.32864428]
@@ -35786,38 +35822,38 @@
  [5.09835809 5.09835809 0.         0.         0.         1.09259745]]</t>
         </is>
       </c>
-      <c r="D1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
+      <c r="D1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
         <is>
           <t>towerse.cm.cost</t>
         </is>
       </c>
-      <c r="B1345" t="inlineStr">
+      <c r="B1347" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="C1345" t="inlineStr">
+      <c r="C1347" t="inlineStr">
         <is>
           <t>[1462859.54936728]</t>
         </is>
       </c>
-      <c r="D1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
+      <c r="D1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
         <is>
           <t>towerse.cm.mass</t>
         </is>
       </c>
-      <c r="B1346" t="inlineStr">
+      <c r="B1348" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="C1346" t="inlineStr">
+      <c r="C1348" t="inlineStr">
         <is>
           <t>[47968.82564838 47968.82564838 47968.82564838 42910.40557992
  42910.40557992 42910.40557992 38068.906271   38068.906271
@@ -35829,38 +35865,38 @@
  13397.90068795 13115.10330209]</t>
         </is>
       </c>
-      <c r="D1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
+      <c r="D1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
         <is>
           <t>towerse.cm.center_of_mass</t>
         </is>
       </c>
-      <c r="B1347" t="inlineStr">
+      <c r="B1349" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1347" t="inlineStr">
+      <c r="C1349" t="inlineStr">
         <is>
           <t>[53.17313517]</t>
         </is>
       </c>
-      <c r="D1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
+      <c r="D1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
         <is>
           <t>towerse.cm.section_center_of_mass</t>
         </is>
       </c>
-      <c r="B1348" t="inlineStr">
+      <c r="B1350" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1348" t="inlineStr">
+      <c r="C1350" t="inlineStr">
         <is>
           <t>[  2.28333333   6.85        11.41666667  15.98333333  20.55
   25.11666667  29.68333333  34.25        38.81666667  43.38333333
@@ -35870,67 +35906,31 @@
  116.44766219 121.01431441 125.57546677 130.14196739 134.70846085]</t>
         </is>
       </c>
-      <c r="D1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
+      <c r="D1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
         <is>
           <t>towerse.cm.I_base</t>
         </is>
       </c>
-      <c r="B1349" t="inlineStr">
+      <c r="B1351" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1349" t="inlineStr">
+      <c r="C1351" t="inlineStr">
         <is>
           <t>[3.63045998e+09 3.63045998e+09 7.61156955e+06 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
-      <c r="D1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>towerse.structural_cost</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C1350" t="inlineStr">
-        <is>
-          <t>[1462859.54936728]</t>
-        </is>
-      </c>
-      <c r="D1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>towerse.structural_mass</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1351" t="inlineStr">
-        <is>
-          <t>[862473.15944534]</t>
-        </is>
-      </c>
       <c r="D1351" t="inlineStr"/>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>towerse.tower_cost</t>
+          <t>towerse.structural_cost</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
@@ -35948,15 +35948,51 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
+          <t>towerse.structural_mass</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>[862473.15944534]</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>towerse.tower_cost</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>[1462859.54936728]</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
           <t>towerse.tower_section_center_of_mass</t>
         </is>
       </c>
-      <c r="B1353" t="inlineStr">
+      <c r="B1355" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1353" t="inlineStr">
+      <c r="C1355" t="inlineStr">
         <is>
           <t>[  2.28333333   6.85        11.41666667  15.98333333  20.55
   25.11666667  29.68333333  34.25        38.81666667  43.38333333
@@ -35966,138 +36002,138 @@
  116.44766219 121.01431441 125.57546677 130.14196739 134.70846085]</t>
         </is>
       </c>
-      <c r="D1353" t="inlineStr"/>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
+      <c r="D1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
         <is>
           <t>towerse.monopile_cost</t>
         </is>
       </c>
-      <c r="B1354" t="inlineStr">
+      <c r="B1356" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="C1354" t="inlineStr">
+      <c r="C1356" t="inlineStr">
         <is>
           <t>[0.]</t>
         </is>
       </c>
-      <c r="D1354" t="inlineStr"/>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
+      <c r="D1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
         <is>
           <t>towerse.constr_d_to_t</t>
         </is>
       </c>
-      <c r="B1355" t="inlineStr"/>
-      <c r="C1355" t="inlineStr">
+      <c r="B1357" t="inlineStr"/>
+      <c r="C1357" t="inlineStr">
         <is>
           <t>[ 96.91496253 108.45985024 122.38290531 137.89480143 156.31602724
  180.282286   212.42626375 255.07753082 302.31821512 316.59090065]</t>
         </is>
       </c>
-      <c r="D1355" t="inlineStr"/>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
+      <c r="D1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
         <is>
           <t>towerse.constr_taper</t>
         </is>
       </c>
-      <c r="B1356" t="inlineStr"/>
-      <c r="C1356" t="inlineStr">
+      <c r="B1358" t="inlineStr"/>
+      <c r="C1358" t="inlineStr">
         <is>
           <t>[1.         1.         1.         1.         1.         1.
  1.         1.         0.98179869 0.93880853]</t>
         </is>
       </c>
-      <c r="D1356" t="inlineStr"/>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
+      <c r="D1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
         <is>
           <t>towerse.slope</t>
         </is>
       </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr">
+      <c r="B1359" t="inlineStr"/>
+      <c r="C1359" t="inlineStr">
         <is>
           <t>[1.         1.         1.         1.         1.         1.
  1.         1.         0.98179869 0.93880853]</t>
         </is>
       </c>
-      <c r="D1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>towerse.turbine_mass</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1358" t="inlineStr">
-        <is>
-          <t>[1285623.99182827]</t>
-        </is>
-      </c>
-      <c r="D1358" t="inlineStr"/>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>towerse.turb.turbine_center_of_mass</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1359" t="inlineStr">
-        <is>
-          <t>[-1.72469116e+00 -2.44358144e-02  8.24414237e+01]</t>
-        </is>
-      </c>
       <c r="D1359" t="inlineStr"/>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
+          <t>towerse.turbine_mass</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>[1285623.99182827]</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>towerse.turb.turbine_center_of_mass</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>[-1.72469116e+00 -2.44358144e-02  8.24414237e+01]</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
           <t>towerse.turb.turbine_I_base</t>
         </is>
       </c>
-      <c r="B1360" t="inlineStr">
+      <c r="B1362" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1360" t="inlineStr">
+      <c r="C1362" t="inlineStr">
         <is>
           <t>[ 1.23905744e+10  1.23229508e+10  1.55045936e+08 -1.64632228e+05
   3.14225533e+08  4.51222343e+06]</t>
         </is>
       </c>
-      <c r="D1360" t="inlineStr"/>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
+      <c r="D1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
         <is>
           <t>towerse.wind.wind.U</t>
         </is>
       </c>
-      <c r="B1361" t="inlineStr">
+      <c r="B1363" t="inlineStr">
         <is>
           <t>m/s</t>
         </is>
       </c>
-      <c r="C1361" t="inlineStr">
+      <c r="C1363" t="inlineStr">
         <is>
           <t>[ 0.          9.12517494 10.48207345 11.36751276 12.04074052 12.59027454
  13.0578432  13.46668828 13.83117883 14.16086235 14.46242765 14.74075528
@@ -36107,20 +36143,20 @@
  18.01629358]</t>
         </is>
       </c>
-      <c r="D1361" t="inlineStr"/>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
+      <c r="D1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_Px</t>
         </is>
       </c>
-      <c r="B1362" t="inlineStr">
+      <c r="B1364" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1362" t="inlineStr">
+      <c r="C1364" t="inlineStr">
         <is>
           <t>[  0.         199.70677189 275.14702123 328.80598639 371.9581969
  408.75781051 441.11052244 470.16881762 496.67833684 521.14640472
@@ -36131,58 +36167,58 @@
  778.18685648]</t>
         </is>
       </c>
-      <c r="D1362" t="inlineStr"/>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
+      <c r="D1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_Py</t>
         </is>
       </c>
-      <c r="B1363" t="inlineStr">
+      <c r="B1365" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1363" t="inlineStr">
+      <c r="C1365" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1363" t="inlineStr"/>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
+      <c r="D1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_Pz</t>
         </is>
       </c>
-      <c r="B1364" t="inlineStr">
+      <c r="B1366" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1364" t="inlineStr">
+      <c r="C1366" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1364" t="inlineStr"/>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
+      <c r="D1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_qdyn</t>
         </is>
       </c>
-      <c r="B1365" t="inlineStr">
+      <c r="B1367" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1365" t="inlineStr">
+      <c r="C1367" t="inlineStr">
         <is>
           <t>[  0.          51.00215087  67.29774154  79.14746208  88.79990233
   97.09044538 104.43570234 111.07791204 117.17217361 122.82463872
@@ -36193,20 +36229,20 @@
  198.8094361 ]</t>
         </is>
       </c>
-      <c r="D1365" t="inlineStr"/>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
+      <c r="D1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_z</t>
         </is>
       </c>
-      <c r="B1366" t="inlineStr">
+      <c r="B1368" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1366" t="inlineStr">
+      <c r="C1368" t="inlineStr">
         <is>
           <t>[  0.           4.56666667   9.13333333  13.7         18.26666667
   22.83333333  27.4         31.96666667  36.53333333  41.1
@@ -36217,38 +36253,38 @@
  137.        ]</t>
         </is>
       </c>
-      <c r="D1366" t="inlineStr"/>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
+      <c r="D1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_beta</t>
         </is>
       </c>
-      <c r="B1367" t="inlineStr">
+      <c r="B1369" t="inlineStr">
         <is>
           <t>deg</t>
         </is>
       </c>
-      <c r="C1367" t="inlineStr">
+      <c r="C1369" t="inlineStr">
         <is>
           <t>[0.]</t>
         </is>
       </c>
-      <c r="D1367" t="inlineStr"/>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="inlineStr">
+      <c r="D1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
         <is>
           <t>towerse.wind.Px</t>
         </is>
       </c>
-      <c r="B1368" t="inlineStr">
+      <c r="B1370" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1368" t="inlineStr">
+      <c r="C1370" t="inlineStr">
         <is>
           <t>[  0.         199.70677189 275.14702123 328.80598639 371.9581969
  408.75781051 441.11052244 470.16881762 496.67833684 521.14640472
@@ -36259,58 +36295,58 @@
  778.18685648]</t>
         </is>
       </c>
-      <c r="D1368" t="inlineStr"/>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="inlineStr">
+      <c r="D1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
         <is>
           <t>towerse.wind.Py</t>
         </is>
       </c>
-      <c r="B1369" t="inlineStr">
+      <c r="B1371" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1369" t="inlineStr">
+      <c r="C1371" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1369" t="inlineStr"/>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="inlineStr">
+      <c r="D1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
         <is>
           <t>towerse.wind.Pz</t>
         </is>
       </c>
-      <c r="B1370" t="inlineStr">
+      <c r="B1372" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1370" t="inlineStr">
+      <c r="C1372" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1370" t="inlineStr"/>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="inlineStr">
+      <c r="D1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
         <is>
           <t>towerse.wind.qdyn</t>
         </is>
       </c>
-      <c r="B1371" t="inlineStr">
+      <c r="B1373" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1371" t="inlineStr">
+      <c r="C1373" t="inlineStr">
         <is>
           <t>[  0.          51.00215087  67.29774154  79.14746208  88.79990233
   97.09044538 104.43570234 111.07791204 117.17217361 122.82463872
@@ -36321,54 +36357,18 @@
  198.8094361 ]</t>
         </is>
       </c>
-      <c r="D1371" t="inlineStr"/>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="inlineStr">
-        <is>
-          <t>towerse.pre.kidx</t>
-        </is>
-      </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr">
-        <is>
-          <t>[0.]</t>
-        </is>
-      </c>
-      <c r="D1372" t="inlineStr"/>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="inlineStr">
-        <is>
-          <t>towerse.pre.kx</t>
-        </is>
-      </c>
-      <c r="B1373" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
-      <c r="C1373" t="inlineStr">
-        <is>
-          <t>[1.e+30]</t>
-        </is>
-      </c>
       <c r="D1373" t="inlineStr"/>
     </row>
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>towerse.pre.ky</t>
-        </is>
-      </c>
-      <c r="B1374" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
+          <t>towerse.pre.kidx</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr"/>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>[1.e+30]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr"/>
@@ -36376,7 +36376,7 @@
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>towerse.pre.kz</t>
+          <t>towerse.pre.kx</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
@@ -36394,7 +36394,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>towerse.pre.ktx</t>
+          <t>towerse.pre.ky</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
@@ -36412,7 +36412,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>towerse.pre.kty</t>
+          <t>towerse.pre.kz</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr">
@@ -36430,7 +36430,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>towerse.pre.ktz</t>
+          <t>towerse.pre.ktx</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr">
@@ -36448,13 +36448,17 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>towerse.pre.midx</t>
-        </is>
-      </c>
-      <c r="B1379" t="inlineStr"/>
+          <t>towerse.pre.kty</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>N/m</t>
+        </is>
+      </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[1.e+30]</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr"/>
@@ -36462,17 +36466,17 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>towerse.pre.m</t>
+          <t>towerse.pre.ktz</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>N/m</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[1.e+30]</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr"/>
@@ -36480,14 +36484,10 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>towerse.pre.mIxx</t>
-        </is>
-      </c>
-      <c r="B1381" t="inlineStr">
-        <is>
-          <t>kg*m**2</t>
-        </is>
-      </c>
+          <t>towerse.pre.midx</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr"/>
       <c r="C1381" t="inlineStr">
         <is>
           <t>[0. 0.]</t>
@@ -36498,12 +36498,12 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>towerse.pre.mIyy</t>
+          <t>towerse.pre.m</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -36516,7 +36516,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>towerse.pre.mIzz</t>
+          <t>towerse.pre.mIxx</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
@@ -36534,7 +36534,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>towerse.pre.mIxy</t>
+          <t>towerse.pre.mIyy</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
@@ -36552,7 +36552,7 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>towerse.pre.mIxz</t>
+          <t>towerse.pre.mIzz</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
@@ -36570,7 +36570,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>towerse.pre.mIyz</t>
+          <t>towerse.pre.mIxy</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
@@ -36588,12 +36588,12 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>towerse.pre.mrhox</t>
+          <t>towerse.pre.mIxz</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -36606,12 +36606,12 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>towerse.pre.mrhoy</t>
+          <t>towerse.pre.mIyz</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
@@ -36624,7 +36624,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>towerse.pre.mrhoz</t>
+          <t>towerse.pre.mrhox</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
@@ -36642,13 +36642,17 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>towerse.pre.plidx</t>
-        </is>
-      </c>
-      <c r="B1390" t="inlineStr"/>
+          <t>towerse.pre.mrhoy</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[0. 0.]</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr"/>
@@ -36656,17 +36660,17 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>towerse.pre.Fx</t>
+          <t>towerse.pre.mrhoz</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>[2199361.42303206]</t>
+          <t>[0. 0.]</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr"/>
@@ -36674,17 +36678,13 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>towerse.pre.Fy</t>
-        </is>
-      </c>
-      <c r="B1392" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>towerse.pre.plidx</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr"/>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>[41405.99511701]</t>
+          <t>[30.]</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr"/>
@@ -36692,7 +36692,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>towerse.pre.Fz</t>
+          <t>towerse.pre.Fx</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
@@ -36702,7 +36702,7 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>[-2470893.66004019]</t>
+          <t>[2199361.42303206]</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr"/>
@@ -36710,17 +36710,17 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>towerse.pre.Mxx</t>
+          <t>towerse.pre.Fy</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>N*m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>[15682220.22280832]</t>
+          <t>[41405.99511701]</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr"/>
@@ -36728,17 +36728,17 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>towerse.pre.Myy</t>
+          <t>towerse.pre.Fz</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>N*m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>[2129479.04615548]</t>
+          <t>[-2470893.66004019]</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr"/>
@@ -36746,7 +36746,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>towerse.pre.Mzz</t>
+          <t>towerse.pre.Mxx</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
@@ -36756,7 +36756,7 @@
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>[1127332.25769337]</t>
+          <t>[15682220.22280832]</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr"/>
@@ -36764,17 +36764,17 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>towerse.tower.mass</t>
+          <t>towerse.pre.Myy</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>N*m</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>[806049.6746582]</t>
+          <t>[2129479.04615548]</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr"/>
@@ -36782,17 +36782,17 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>towerse.tower.f1</t>
+          <t>towerse.pre.Mzz</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Hz</t>
+          <t>N*m</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>[0.46293777]</t>
+          <t>[1127332.25769337]</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr"/>
@@ -36800,17 +36800,17 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>towerse.tower.f2</t>
+          <t>towerse.tower.mass</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Hz</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>[0.46293777]</t>
+          <t>[806049.6746582]</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr"/>
@@ -36818,7 +36818,7 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>towerse.tower.structural_frequencies</t>
+          <t>towerse.tower.f1</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
@@ -36828,7 +36828,7 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>[0.46293777 0.46293777 2.16371723 2.16371723 5.40761422 5.40761422]</t>
+          <t>[0.46293777]</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr"/>
@@ -36836,27 +36836,63 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
+          <t>towerse.tower.f2</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>[0.46293777]</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>towerse.tower.structural_frequencies</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>[0.46293777 0.46293777 2.16371723 2.16371723 5.40761422 5.40761422]</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
           <t>towerse.tower.fore_aft_modes</t>
         </is>
       </c>
-      <c r="B1401" t="inlineStr"/>
-      <c r="C1401" t="inlineStr">
+      <c r="B1403" t="inlineStr"/>
+      <c r="C1403" t="inlineStr">
         <is>
           <t>[[  1.46753066  -0.47132109   0.272763    -0.4694146    0.20044204]
  [ -6.64274733   7.61799934   9.09588289 -12.60640394   3.53526904]
  [ 22.08498688 -72.74045294  43.06486382  44.46107799 -35.87047575]]</t>
         </is>
       </c>
-      <c r="D1401" t="inlineStr"/>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
+      <c r="D1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
         <is>
           <t>towerse.tower.side_side_modes</t>
         </is>
       </c>
-      <c r="B1402" t="inlineStr"/>
-      <c r="C1402" t="inlineStr">
+      <c r="B1404" t="inlineStr"/>
+      <c r="C1404" t="inlineStr">
         <is>
           <t>[[ 1.46753066e+00 -4.71321092e-01  2.72762998e-01 -4.69414603e-01
    2.00442038e-01]
@@ -36866,16 +36902,16 @@
   -3.58704758e+01]]</t>
         </is>
       </c>
-      <c r="D1402" t="inlineStr"/>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
+      <c r="D1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
         <is>
           <t>towerse.tower.torsion_modes</t>
         </is>
       </c>
-      <c r="B1403" t="inlineStr"/>
-      <c r="C1403" t="inlineStr">
+      <c r="B1405" t="inlineStr"/>
+      <c r="C1405" t="inlineStr">
         <is>
           <t>[[ -2597.2179641    9865.10086231 -17529.38575002  14767.89840998
    -4708.96922768]
@@ -36885,48 +36921,12 @@
        0.        ]]</t>
         </is>
       </c>
-      <c r="D1403" t="inlineStr"/>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>towerse.tower.fore_aft_freqs</t>
-        </is>
-      </c>
-      <c r="B1404" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="C1404" t="inlineStr">
-        <is>
-          <t>[0.46293777 2.16371723 5.40761422]</t>
-        </is>
-      </c>
-      <c r="D1404" t="inlineStr"/>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="inlineStr">
-        <is>
-          <t>towerse.tower.side_side_freqs</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="C1405" t="inlineStr">
-        <is>
-          <t>[0.46293777 2.16371723 5.40761422]</t>
-        </is>
-      </c>
       <c r="D1405" t="inlineStr"/>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>towerse.tower.torsion_freqs</t>
+          <t>towerse.tower.fore_aft_freqs</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
@@ -36936,7 +36936,7 @@
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>[11.85907444  0.          0.        ]</t>
+          <t>[0.46293777 2.16371723 5.40761422]</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr"/>
@@ -36944,15 +36944,51 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
+          <t>towerse.tower.side_side_freqs</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>[0.46293777 2.16371723 5.40761422]</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>towerse.tower.torsion_freqs</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>[11.85907444  0.          0.        ]</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
           <t>towerse.tower.tower_deflection</t>
         </is>
       </c>
-      <c r="B1407" t="inlineStr">
+      <c r="B1409" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1407" t="inlineStr">
+      <c r="C1409" t="inlineStr">
         <is>
           <t>[0.         0.00332466 0.01271238 0.02795834 0.04920625 0.07652903
  0.10969562 0.14885273 0.19406143 0.24506003 0.30195974 0.36477622
@@ -36962,38 +36998,38 @@
  2.50029635]</t>
         </is>
       </c>
-      <c r="D1407" t="inlineStr"/>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
+      <c r="D1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
         <is>
           <t>towerse.tower.top_deflection</t>
         </is>
       </c>
-      <c r="B1408" t="inlineStr">
+      <c r="B1410" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1408" t="inlineStr">
+      <c r="C1410" t="inlineStr">
         <is>
           <t>[2.50029635]</t>
         </is>
       </c>
-      <c r="D1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
+      <c r="D1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Fz</t>
         </is>
       </c>
-      <c r="B1409" t="inlineStr">
+      <c r="B1411" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1409" t="inlineStr">
+      <c r="C1411" t="inlineStr">
         <is>
           <t>[-9935658.14772039 -9496033.74922176 -9056409.35072313 -8663144.32206213
  -8269879.29340113 -7876614.26474014 -7527720.58500311 -7178826.90526612
@@ -37005,20 +37041,20 @@
  -2591090.88439122 -2470893.66004018]</t>
         </is>
       </c>
-      <c r="D1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
+      <c r="D1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Vx</t>
         </is>
       </c>
-      <c r="B1410" t="inlineStr">
+      <c r="B1412" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1410" t="inlineStr">
+      <c r="C1412" t="inlineStr">
         <is>
           <t>[2280562.64751369 2279770.06097657 2278672.82637924 2277253.65133417
  2275732.3745212  2274043.23620501 2272030.07869369 2270053.35639289
@@ -37030,20 +37066,20 @@
  2204837.85898575 2201243.29322616]</t>
         </is>
       </c>
-      <c r="D1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
+      <c r="D1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Vy</t>
         </is>
       </c>
-      <c r="B1411" t="inlineStr">
+      <c r="B1413" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1411" t="inlineStr">
+      <c r="C1413" t="inlineStr">
         <is>
           <t>[41401.14509128 41390.93359817 41380.54762734 41373.25793058
  41362.55164176 41351.67654479 41347.41522318 41336.23041495
@@ -37055,20 +37091,20 @@
  41212.26725078 41200.3064139 ]</t>
         </is>
       </c>
-      <c r="D1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
+      <c r="D1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Mxx</t>
         </is>
       </c>
-      <c r="B1412" t="inlineStr">
+      <c r="B1414" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1412" t="inlineStr">
+      <c r="C1414" t="inlineStr">
         <is>
           <t>[10873780.60847838 11059759.06676383 11243826.11249394 11426027.9115742
  11606374.65716894 11785029.48695186 11962038.06366667 12137377.59584028
@@ -37080,20 +37116,20 @@
  15533636.37322816 15682226.55689752]</t>
         </is>
       </c>
-      <c r="D1412" t="inlineStr"/>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
+      <c r="D1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Myy</t>
         </is>
       </c>
-      <c r="B1413" t="inlineStr">
+      <c r="B1415" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1413" t="inlineStr">
+      <c r="C1415" t="inlineStr">
         <is>
           <t>[3.10583173e+08 3.00078454e+08 2.89527929e+08 2.78936607e+08
  2.68308786e+08 2.57651929e+08 2.46970155e+08 2.36266326e+08
@@ -37105,20 +37141,20 @@
  1.25518848e+07 2.12948199e+06]</t>
         </is>
       </c>
-      <c r="D1413" t="inlineStr"/>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
+      <c r="D1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Mzz</t>
         </is>
       </c>
-      <c r="B1414" t="inlineStr">
+      <c r="B1416" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1414" t="inlineStr">
+      <c r="C1416" t="inlineStr">
         <is>
           <t>[1127486.59997926 1127480.05928697 1127473.51867056 1127482.86154175
  1127476.32089267 1127469.78031948 1127479.89995051 1127473.35933598
@@ -37130,56 +37166,56 @@
  1127476.79973998 1127473.23520141]</t>
         </is>
       </c>
-      <c r="D1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>towerse.tower.base_F</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C1415" t="inlineStr">
-        <is>
-          <t>[  2281018.64454117     41401.14509128 -10375282.54621902]</t>
-        </is>
-      </c>
-      <c r="D1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>towerse.tower.base_M</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr">
-        <is>
-          <t>N*m</t>
-        </is>
-      </c>
-      <c r="C1416" t="inlineStr">
-        <is>
-          <t>[1.06857387e+07 3.21032879e+08 1.12748660e+06]</t>
-        </is>
-      </c>
       <c r="D1416" t="inlineStr"/>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
+          <t>towerse.tower.base_F</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>[  2281018.64454117     41401.14509128 -10375282.54621902]</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>towerse.tower.base_M</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>N*m</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>[1.06857387e+07 3.21032879e+08 1.12748660e+06]</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
           <t>towerse.post.axial_stress</t>
         </is>
       </c>
-      <c r="B1417" t="inlineStr">
+      <c r="B1419" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1417" t="inlineStr">
+      <c r="C1419" t="inlineStr">
         <is>
           <t>[1.74526295e+08 1.68724767e+08 1.62896867e+08 1.75110364e+08
  1.68516637e+08 1.61904795e+08 1.74593209e+08 1.67076502e+08
@@ -37191,20 +37227,20 @@
  3.56082345e+07 2.82681539e+07]</t>
         </is>
       </c>
-      <c r="D1417" t="inlineStr"/>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
+      <c r="D1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
         <is>
           <t>towerse.post.shear_stress</t>
         </is>
       </c>
-      <c r="B1418" t="inlineStr">
+      <c r="B1420" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1418" t="inlineStr">
+      <c r="C1420" t="inlineStr">
         <is>
           <t>[ 3569471.35913887  3568344.45735719  3566785.24351533  3986075.06900389
   3983658.11759073  3980974.74035883  4484802.49080463  4481261.60833507
@@ -37216,20 +37252,20 @@
  12474894.75853013 12752036.36703765]</t>
         </is>
       </c>
-      <c r="D1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
+      <c r="D1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
         <is>
           <t>towerse.post.hoop_stress</t>
         </is>
       </c>
-      <c r="B1419" t="inlineStr">
+      <c r="B1421" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1419" t="inlineStr">
+      <c r="C1421" t="inlineStr">
         <is>
           <t>[ -1222.96734738  -2836.68243686  -3511.57155455  -4511.89965726
   -4993.93723178  -5413.99241348  -6539.91716173  -6926.41463323
@@ -37241,35 +37277,35 @@
  -30732.99393983 -30502.24207578]</t>
         </is>
       </c>
-      <c r="D1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
+      <c r="D1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
         <is>
           <t>towerse.post.hoop_stress_euro</t>
         </is>
       </c>
-      <c r="B1420" t="inlineStr">
+      <c r="B1422" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1420" t="inlineStr">
+      <c r="C1422" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
+      <c r="D1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
         <is>
           <t>towerse.post.constr_stress</t>
         </is>
       </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr">
+      <c r="B1423" t="inlineStr"/>
+      <c r="C1423" t="inlineStr">
         <is>
           <t>[0.68108187 0.65847345 0.63576134 0.68346981 0.65777529 0.63201162
  0.68159985 0.65231461 0.62299385 0.6668079  0.63363509 0.60046613
@@ -37278,16 +37314,16 @@
  0.37733332 0.31285179 0.24976931 0.21091357 0.16249062 0.13995486]</t>
         </is>
       </c>
-      <c r="D1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
+      <c r="D1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
         <is>
           <t>towerse.post.constr_shell_buckling</t>
         </is>
       </c>
-      <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="inlineStr">
+      <c r="B1424" t="inlineStr"/>
+      <c r="C1424" t="inlineStr">
         <is>
           <t>[0.02291717 0.02190283 0.02088867 0.02268004 0.0216506  0.02062115
  0.02267259 0.02162226 0.02057191 0.02267573 0.02159891 0.02052207
@@ -37296,16 +37332,16 @@
  0.04471658 0.04280166 0.04089478 0.04588003 0.04398114 0.04212838]</t>
         </is>
       </c>
-      <c r="D1422" t="inlineStr"/>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
+      <c r="D1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
         <is>
           <t>towerse.post.constr_global_buckling</t>
         </is>
       </c>
-      <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr">
+      <c r="B1425" t="inlineStr"/>
+      <c r="C1425" t="inlineStr">
         <is>
           <t>[1.05602977 1.0162567  0.97657403 1.05669608 1.01277656 0.96901627
  1.05269066 1.00394376 0.95542986 1.03016621 0.97626556 0.92268017
@@ -37314,168 +37350,124 @@
  0.65485882 0.55982712 0.46578741 0.41933602 0.34553185 0.30768399]</t>
         </is>
       </c>
-      <c r="D1423" t="inlineStr"/>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>towerse.post.turbine_F</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C1424" t="inlineStr">
-        <is>
-          <t>[0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1424" t="inlineStr">
-        <is>
-          <t>Total force on tower+rna</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>towerse.post.turbine_M</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr">
-        <is>
-          <t>N*m</t>
-        </is>
-      </c>
-      <c r="C1425" t="inlineStr">
-        <is>
-          <t>[0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1425" t="inlineStr">
-        <is>
-          <t>Total x-moment on tower+rna measured at base</t>
-        </is>
-      </c>
+      <c r="D1425" t="inlineStr"/>
     </row>
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>tcons.constr_tower_f_NPmargin</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr"/>
+          <t>towerse.post.turbine_F</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>[-0.02195356]</t>
+          <t>[0. 0. 0.]</t>
         </is>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>constraint on tower frequency such that ratio of 3P/f is above or below gamma with constraint &lt;= 0</t>
+          <t>Total force on tower+rna</t>
         </is>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>tcons.constr_tower_f_1Pmargin</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr"/>
+          <t>towerse.post.turbine_M</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>N*m</t>
+        </is>
+      </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>[-0.28508051]</t>
+          <t>[0. 0. 0.]</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>constraint on tower frequency such that ratio of 1P/f is above or below gamma with constraint &lt;= 0</t>
+          <t>Total x-moment on tower+rna measured at base</t>
         </is>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>tcons.tip_deflection_ratio</t>
+          <t>tcons.constr_tower_f_NPmargin</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr"/>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>[1.02106683]</t>
-        </is>
-      </c>
-      <c r="D1428" t="inlineStr"/>
+          <t>[-0.02195356]</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>constraint on tower frequency such that ratio of 3P/f is above or below gamma with constraint &lt;= 0</t>
+        </is>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>tcons.blade_tip_tower_clearance</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>tcons.constr_tower_f_1Pmargin</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr"/>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>[18.72635043]</t>
-        </is>
-      </c>
-      <c r="D1429" t="inlineStr"/>
+          <t>[-0.28508051]</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>constraint on tower frequency such that ratio of 1P/f is above or below gamma with constraint &lt;= 0</t>
+        </is>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>landbosse.bos_capex</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+          <t>tcons.tip_deflection_ratio</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr"/>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>[1.19729268e+08]</t>
-        </is>
-      </c>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>Total BOS CAPEX not including commissioning or decommissioning.</t>
-        </is>
-      </c>
+          <t>[1.02106683]</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr"/>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>landbosse.bos_capex_kW</t>
+          <t>tcons.blade_tip_tower_clearance</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>[200.]</t>
-        </is>
-      </c>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>Total BOS CAPEX per kW not including commissioning or decommissioning.</t>
-        </is>
-      </c>
+          <t>[18.72635043]</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr"/>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>landbosse.total_capex</t>
+          <t>landbosse.bos_capex</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
@@ -37485,19 +37477,19 @@
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>[1.38885951e+08]</t>
+          <t>[1.19729268e+08]</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>Total BOS CAPEX including commissioning and decommissioning.</t>
+          <t>Total BOS CAPEX not including commissioning or decommissioning.</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>landbosse.total_capex_kW</t>
+          <t>landbosse.bos_capex_kW</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
@@ -37507,19 +37499,19 @@
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>[231.]</t>
+          <t>[200.]</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>Total BOS CAPEX per kW including commissioning and decommissioning.</t>
+          <t>Total BOS CAPEX per kW not including commissioning or decommissioning.</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>landbosse.installation_capex</t>
+          <t>landbosse.total_capex</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
@@ -37529,111 +37521,155 @@
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>[43579647.]</t>
+          <t>[1.38885951e+08]</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>Total foundation and erection installation cost.</t>
+          <t>Total BOS CAPEX including commissioning and decommissioning.</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>landbosse.installation_capex_kW</t>
+          <t>landbosse.total_capex_kW</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>[73.]</t>
+          <t>[231.]</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
-          <t>Total foundation and erection installation cost per kW.</t>
+          <t>Total BOS CAPEX per kW including commissioning and decommissioning.</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>landbosse.installation_time_months</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr"/>
+          <t>landbosse.installation_capex</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>[12.]</t>
+          <t>[43579647.]</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
-          <t>Total balance of system installation time (months).</t>
+          <t>Total foundation and erection installation cost.</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>landbosse.landbosse_costs_by_module_type_operation</t>
+          <t>landbosse.installation_capex_kW</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>[{'Module': 'FoundationCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 1.2801668630815883, 'Cost / project': 768100.117848953, 'Cost / turbine': 6400.834315407942, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Labor', 'Cost / kW': 13.642870614583023, 'Cost / project': 8185722.368749814, 'Cost / turbine': 68214.35307291512, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Materials', 'Cost / kW': 23.67491295085423, 'Cost / project': 14204947.77051254, 'Cost / turbine': 118374.56475427117, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Mobilization', 'Cost / kW': 1.9298975214259424, 'Cost / project': 1157938.5128555654, 'Cost / turbine': 9649.487607129711, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Materials', 'Cost / kW': 5.476570135242568, 'Cost / project': 3285942.081145541, 'Cost / turbine': 27382.85067621284, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 3.0249317184701137, 'Cost / project': 1814959.031082068, 'Cost / turbine': 15124.658592350568, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Labor', 'Cost / kW': 3.2721485433158644, 'Cost / project': 1963289.1259895186, 'Cost / turbine': 16360.742716579321, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Other', 'Cost / kW': 2.86459986, 'Cost / project': 1718759.9160000002, 'Cost / turbine': 14322.999300000001, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Mobilization', 'Cost / kW': 0.38864554432410786, 'Cost / project': 233187.3265944647, 'Cost / turbine': 1943.2277216205393, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SubstationCost', 'Type of cost': 'Other', 'Cost / kW': 16.911599000804763, 'Cost / project': 10146959.400482858, 'Cost / turbine': 84557.99500402382, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'GridConnectionCost', 'Type of cost': 'Other', 'Cost / kW': 6.794429688199228, 'Cost / project': 4076657.812919537, 'Cost / turbine': 33972.14844099614, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 4.4995824058955645, 'Cost / project': 2699749.4435373386, 'Cost / turbine': 22497.912029477822, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Labor', 'Cost / kW': 8.396861124129725, 'Cost / project': 5038116.674477834, 'Cost / turbine': 41984.30562064862, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Materials', 'Cost / kW': 31.87906207754761, 'Cost / project': 19127437.246528566, 'Cost / turbine': 159395.31038773805, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Mobilization', 'Cost / kW': 2.238775280378645, 'Cost / project': 1343265.1682271871, 'Cost / turbine': 11193.876401893225, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Labor', 'Cost / kW': 1.6666666666666667, 'Cost / project': 1000000.0, 'Cost / turbine': 8333.333333333334, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Materials', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Mobilization', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Other', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 6.130945857678428, 'Cost / project': 3678567.514607057, 'Cost / turbine': 30654.72928839214, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Fuel', 'Cost / kW': 0.189045, 'Cost / project': 113427.0, 'Cost / turbine': 945.225, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Labor', 'Cost / kW': 21.827617384093614, 'Cost / project': 13096570.430456169, 'Cost / turbine': 109138.08692046808, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Mobilization', 'Cost / kW': 3.957288666666667, 'Cost / project': 2374373.2, 'Cost / turbine': 19786.443333333336, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Other', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Materials', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'insurance', 'Cost / kW': 0.8962610546588067, 'Cost / project': 537756.632795284, 'Cost / turbine': 4481.305273294033, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Construction Permitting', 'Cost / kW': 1.143890292332229, 'Cost / project': 686334.1753993374, 'Cost / turbine': 5719.451461661145, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Project Management', 'Cost / kW': 3.982776508125, 'Cost / project': 2389665.904875, 'Cost / turbine': 19913.882540625, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Bonding', 'Cost / kW': 1.6004661690335835, 'Cost / project': 960279.7014201501, 'Cost / turbine': 8002.330845167918, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Markup Contingency', 'Cost / kW': 20.838069520817253, 'Cost / project': 12502841.712490352, 'Cost / turbine': 104190.34760408626, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Engineering Foundation and Collections System (includes met mast)', 'Cost / kW': 7.80445, 'Cost / project': 4682670.0, 'Cost / turbine': 39022.25, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Site Facility', 'Cost / kW': 3.23625, 'Cost / project': 1941750.0, 'Cost / turbine': 16181.25, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}]</t>
+          <t>[73.]</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>The costs by module, type and operation</t>
+          <t>Total foundation and erection installation cost per kW.</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>landbosse.landbosse_details_by_module</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
+          <t>landbosse.installation_time_months</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr"/>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>[{'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'wind_multiplier', 'value': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN', 'type': 'variable', 'variable_df_key_col_name': 'F_dead', 'value': 10955.752278188736, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN', 'type': 'variable', 'variable_df_key_col_name': 'F_horiz', 'value': 1083.292020938473, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN_m', 'type': 'variable', 'variable_df_key_col_name': 'M_tot_kN', 'value': 142487.20520072608, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_o', 'value': 9.210776001595615, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_g', 'value': 0.0, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_b', 'value': 10.734424420719298, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius', 'value': 10.734424420719298, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'short_ton', 'type': 'variable', 'variable_df_key_col_name': 'steel_mass_short_ton_per_turbine', 'value': 43.78036449813917, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm^3', 'type': 'variable', 'variable_df_key_col_name': 'foundation_volume_concrete_m3_per_turbine', 'value': 384.4429618733681, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Rebar installation-4203-47.0-1.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Concrete placement-298-4.0-3.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Excavation-147-2.0-nan', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Backfill-90-1.0-1.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'ton (short)', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '0-Steel - rebar-4.38e+01', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '1-Concrete 5000 psi-4.95e+02', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic_yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '2-Excavated dirt-1.22e+03', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic_yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '3-Backfill-1.22e+03', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Foundation &lt;--&gt; 768101', 'last_number': 768100.117848953, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Foundation &lt;--&gt; 8185723', 'last_number': 8185722.368749814, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Foundation &lt;--&gt; 14204948', 'last_number': 14204947.77051254, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Foundation &lt;--&gt; 1157939', 'last_number': 1157938.5128555654, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm^3', 'type': 'variable', 'variable_df_key_col_name': 'Total road volume', 'value': 226917.6, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Depth to subgrade', 'value': 0.1, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'ft', 'type': 'variable', 'variable_df_key_col_name': 'Crane path width', 'value': 13.7, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road length', 'value': 176598.0, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road width', 'value': 6.0, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road thickness', 'value': 0.2, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Material volume', 'value': 412547.6561387999, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Topsoil volume', 'value': 316444.455117, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Embankment volume crane', 'value': 316444.455117, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Embankment volume road', 'value': 277177.62492, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'ft^2', 'type': 'variable', 'variable_df_key_col_name': 'Rough grading area', 'value': 114.05299273199999, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Roads &lt;--&gt; 3285943', 'last_number': 3285942.081145541, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Roads &lt;--&gt; 1814960', 'last_number': 1814959.031082068, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Roads &lt;--&gt; 1963290', 'last_number': 1963289.1259895186, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Roads &lt;--&gt; 1718760', 'last_number': 1718759.9160000002, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Roads &lt;--&gt; 233188', 'last_number': 233187.3265944647, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Substation &lt;--&gt; 10146960', 'last_number': 10146959.400482858, 'project_id_with_serial': 'WISDEM', 'module': 'SubstationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Transmission and Distribution &lt;--&gt; 4076658', 'last_number': 4076657.812919537, 'project_id_with_serial': 'WISDEM', 'module': 'GridConnectionCost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Total Number of Turbines', 'value': 120.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total trench length', 'value': 388.66358074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length', 'value': 388.66358074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Turbines Per String in Full String', 'value': 11.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Full Strings', 'value': 10.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Turbines in Partial String', 'value': 10.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Partial Strings', 'value': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Total number of strings full + partial', 'value': 11.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Trench Length to Substation (km)', 'value': 231.48558074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Cable Length to Substation (km)', 'value': 231.48558074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  AWG 1/0', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  AWG 1/0', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  AWG 1/0', 'value': 624488.188976378, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  AWG 4/0', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  AWG 4/0', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  AWG 4/0', 'value': 936732.283464567, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM 500', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM 500', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM 500', 'value': 1353057.7427821523, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM1000', 'value': 4.326, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM1000', 'value': 47.586, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM1000', 'value': 2497952.755905512, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM1250', 'value': 1.442, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM1250', 'value': 245.90558074952392, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM1250', 'value': 13715206.275399957, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'list', 'variable_df_key_col_name': 'Number of turbines per cable type in full strings [AWG 1/0  ,  AWG 4/0  ,  MCM 500  ,  MCM1000  ,  MCM1250]', 'value': '[3.0, 2.0, 2.0, 3.0, 1.0]', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '0 &lt;--&gt; Project manager &lt;--&gt; 119.0 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/project-manager-sr-construction-hourly?type=base; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 107100.0 &lt;--&gt; 120510.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '1 &lt;--&gt; Site manager &lt;--&gt; 112.2 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/construction-manager-ii-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 100980.0 &lt;--&gt; 114390.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '2 &lt;--&gt; Construction manager &lt;--&gt; 112.2 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/construction-manager-ii-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 100980.0 &lt;--&gt; 114390.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '3 &lt;--&gt; Project engineer &lt;--&gt; 93.5 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/project-engineer-iii-construction-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 84150.0 &lt;--&gt; 97560.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '4 &lt;--&gt; Safety or qc manager &lt;--&gt; 106.11764705882352 &lt;--&gt; 149 &lt;--&gt; (70% burden) https://www.salary.com/tools/salary-calculator/construction-site-safety-manager-hourly; plus 35% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 95505.88235294116 &lt;--&gt; 108915.88235294116', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '5 &lt;--&gt; Logistics manager &lt;--&gt; 99.9 &lt;--&gt; 149 &lt;--&gt; (50 % burden) https://www.salary.com/research/salary/benchmark/logistics-manager-hourly-wages; plus 35% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 89910.0 &lt;--&gt; 103320.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '6 &lt;--&gt; Office admin &lt;--&gt; 44.56249999999999 &lt;--&gt; 149 &lt;--&gt; (35% burden) https://www.salary.com/tools/salary-calculator/administrative-assistant-ii-hourly ; 25% for work on a ladder or a scaffold, in a crawl space, in a congested area or remote from the material storage point; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 40106.24999999999 &lt;--&gt; 53516.24999999999', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'list', 'variable_df_key_col_name': 'Percent length of cable in partial string [AWG 1/0  ,  AWG 4/0  ,  MCM 500  ,  MCM1000  ,  MCM1250]', 'value': '[1. 1. 1. 1. 0.]', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Collection &lt;--&gt; 2699750', 'last_number': 2699749.4435373386, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Collection &lt;--&gt; 5038117', 'last_number': 5038116.674477834, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Collection &lt;--&gt; 19127438', 'last_number': 19127437.246528566, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Collection &lt;--&gt; 1343266', 'last_number': 1343265.1682271871, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Equipment rental - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Labor - Development - 1000000', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Materials - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Mobilization - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Other - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Top-Big LR110000-Big PDW3B2 Derrick-3', 'last_number': 3, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Offload-LB 75-Hydraulic-2', 'last_number': 2, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Base-LR1750/2-SX3D4F2B Derrick (walk)-3', 'last_number': 3, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Top-Big LR110000-Big PDW3B2 Derrick-3.0', 'last_number': 3.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Offload-LB 75-Hydraulic-1.0', 'last_number': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Base-LR1750/2-SX3D4F2B Derrick (walk)-2.0', 'last_number': 2.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Nacelle - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Hub - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 1 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 2 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 3 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 1 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 2 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 3 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 4 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 5 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 6 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 7 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 8 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 9 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 10 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 11 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'Big LR110000 - Big PDW3B2 Derrick - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'LB 75 - Hydraulic - Offload', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'LR1750/2 - SX3D4F2B Derrick (walk) - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Equipment rental cost USD - 2452310.014545454', 'last_number': 2452310.014545454, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Equipment rental cost USD - 58546.0706713781', 'last_number': 58546.0706713781, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Equipment rental cost USD - 1167711.4293902244', 'last_number': 1167711.4293902244, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Fuel cost USD - 72540.0', 'last_number': 72540.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Fuel cost USD - 5544.0', 'last_number': 5544.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Fuel cost USD - 35343.0', 'last_number': 35343.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Labor cost USD without management - 3746069.9467044845', 'last_number': 3746069.9467044845, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Labor cost USD without management - 882394.6829100354', 'last_number': 882394.6829100354, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Labor cost USD without management - 2311965.0408416493', 'last_number': 2311965.0408416493, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Mobilization cost USD - 1621827.2', 'last_number': 1621827.2, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Mobilization cost USD - 32160.0', 'last_number': 32160.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Mobilization cost USD - 720386.0', 'last_number': 720386.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Subtotal for hourly labor (non-management) USD - 3228741.9467044845', 'last_number': 3228741.9467044845, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Subtotal for hourly labor (non-management) USD - 757234.6829100354', 'last_number': 757234.6829100354, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Subtotal for hourly labor (non-management) USD - 1992807.040841649', 'last_number': 1992807.040841649, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Subtotal for per diem labor (non-management) USD - 517328.0', 'last_number': 517328.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Subtotal for per diem labor (non-management) USD - 125160.0', 'last_number': 125160.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Subtotal for per diem labor (non-management) USD - 319158.0', 'last_number': 319158.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Total cost USD - 7892747.161249938', 'last_number': 7892747.161249938, 'project_id_with_serial': 'WISDEM', 'modul</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>The details from the run of LandBOSSE. This includes some costs, but mostly other things</t>
+          <t>Total balance of system installation time (months).</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
+          <t>landbosse.landbosse_costs_by_module_type_operation</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>[{'Module': 'FoundationCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 1.2801668630815883, 'Cost / project': 768100.117848953, 'Cost / turbine': 6400.834315407942, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Labor', 'Cost / kW': 13.642870614583023, 'Cost / project': 8185722.368749814, 'Cost / turbine': 68214.35307291512, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Materials', 'Cost / kW': 23.67491295085423, 'Cost / project': 14204947.77051254, 'Cost / turbine': 118374.56475427117, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Mobilization', 'Cost / kW': 1.9298975214259424, 'Cost / project': 1157938.5128555654, 'Cost / turbine': 9649.487607129711, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Materials', 'Cost / kW': 5.476570135242568, 'Cost / project': 3285942.081145541, 'Cost / turbine': 27382.85067621284, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 3.0249317184701137, 'Cost / project': 1814959.031082068, 'Cost / turbine': 15124.658592350568, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Labor', 'Cost / kW': 3.2721485433158644, 'Cost / project': 1963289.1259895186, 'Cost / turbine': 16360.742716579321, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Other', 'Cost / kW': 2.86459986, 'Cost / project': 1718759.9160000002, 'Cost / turbine': 14322.999300000001, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Mobilization', 'Cost / kW': 0.38864554432410786, 'Cost / project': 233187.3265944647, 'Cost / turbine': 1943.2277216205393, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SubstationCost', 'Type of cost': 'Other', 'Cost / kW': 16.911599000804763, 'Cost / project': 10146959.400482858, 'Cost / turbine': 84557.99500402382, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'GridConnectionCost', 'Type of cost': 'Other', 'Cost / kW': 6.794429688199228, 'Cost / project': 4076657.812919537, 'Cost / turbine': 33972.14844099614, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 4.4995824058955645, 'Cost / project': 2699749.4435373386, 'Cost / turbine': 22497.912029477822, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Labor', 'Cost / kW': 8.396861124129725, 'Cost / project': 5038116.674477834, 'Cost / turbine': 41984.30562064862, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Materials', 'Cost / kW': 31.87906207754761, 'Cost / project': 19127437.246528566, 'Cost / turbine': 159395.31038773805, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Mobilization', 'Cost / kW': 2.238775280378645, 'Cost / project': 1343265.1682271871, 'Cost / turbine': 11193.876401893225, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Labor', 'Cost / kW': 1.6666666666666667, 'Cost / project': 1000000.0, 'Cost / turbine': 8333.333333333334, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Materials', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Mobilization', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Other', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 6.130945857678428, 'Cost / project': 3678567.514607057, 'Cost / turbine': 30654.72928839214, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Fuel', 'Cost / kW': 0.189045, 'Cost / project': 113427.0, 'Cost / turbine': 945.225, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Labor', 'Cost / kW': 21.827617384093614, 'Cost / project': 13096570.430456169, 'Cost / turbine': 109138.08692046808, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Mobilization', 'Cost / kW': 3.957288666666667, 'Cost / project': 2374373.2, 'Cost / turbine': 19786.443333333336, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Other', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Materials', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'insurance', 'Cost / kW': 0.8962610546588067, 'Cost / project': 537756.632795284, 'Cost / turbine': 4481.305273294033, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Construction Permitting', 'Cost / kW': 1.143890292332229, 'Cost / project': 686334.1753993374, 'Cost / turbine': 5719.451461661145, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Project Management', 'Cost / kW': 3.982776508125, 'Cost / project': 2389665.904875, 'Cost / turbine': 19913.882540625, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Bonding', 'Cost / kW': 1.6004661690335835, 'Cost / project': 960279.7014201501, 'Cost / turbine': 8002.330845167918, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Markup Contingency', 'Cost / kW': 20.838069520817253, 'Cost / project': 12502841.712490352, 'Cost / turbine': 104190.34760408626, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Engineering Foundation and Collections System (includes met mast)', 'Cost / kW': 7.80445, 'Cost / project': 4682670.0, 'Cost / turbine': 39022.25, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Site Facility', 'Cost / kW': 3.23625, 'Cost / project': 1941750.0, 'Cost / turbine': 16181.25, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}]</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>The costs by module, type and operation</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>landbosse.landbosse_details_by_module</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>[{'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'wind_multiplier', 'value': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN', 'type': 'variable', 'variable_df_key_col_name': 'F_dead', 'value': 10955.752278188736, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN', 'type': 'variable', 'variable_df_key_col_name': 'F_horiz', 'value': 1083.292020938473, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN_m', 'type': 'variable', 'variable_df_key_col_name': 'M_tot_kN', 'value': 142487.20520072608, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_o', 'value': 9.210776001595615, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_g', 'value': 0.0, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_b', 'value': 10.734424420719298, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius', 'value': 10.734424420719298, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'short_ton', 'type': 'variable', 'variable_df_key_col_name': 'steel_mass_short_ton_per_turbine', 'value': 43.78036449813917, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm^3', 'type': 'variable', 'variable_df_key_col_name': 'foundation_volume_concrete_m3_per_turbine', 'value': 384.4429618733681, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Rebar installation-4203-47.0-1.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Concrete placement-298-4.0-3.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Excavation-147-2.0-nan', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Backfill-90-1.0-1.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'ton (short)', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '0-Steel - rebar-4.38e+01', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '1-Concrete 5000 psi-4.95e+02', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic_yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '2-Excavated dirt-1.22e+03', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic_yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '3-Backfill-1.22e+03', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Foundation &lt;--&gt; 768101', 'last_number': 768100.117848953, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Foundation &lt;--&gt; 8185723', 'last_number': 8185722.368749814, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Foundation &lt;--&gt; 14204948', 'last_number': 14204947.77051254, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Foundation &lt;--&gt; 1157939', 'last_number': 1157938.5128555654, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm^3', 'type': 'variable', 'variable_df_key_col_name': 'Total road volume', 'value': 226917.6, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Depth to subgrade', 'value': 0.1, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'ft', 'type': 'variable', 'variable_df_key_col_name': 'Crane path width', 'value': 13.7, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road length', 'value': 176598.0, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road width', 'value': 6.0, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road thickness', 'value': 0.2, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Material volume', 'value': 412547.6561387999, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Topsoil volume', 'value': 316444.455117, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Embankment volume crane', 'value': 316444.455117, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Embankment volume road', 'value': 277177.62492, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'ft^2', 'type': 'variable', 'variable_df_key_col_name': 'Rough grading area', 'value': 114.05299273199999, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Roads &lt;--&gt; 3285943', 'last_number': 3285942.081145541, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Roads &lt;--&gt; 1814960', 'last_number': 1814959.031082068, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Roads &lt;--&gt; 1963290', 'last_number': 1963289.1259895186, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Roads &lt;--&gt; 1718760', 'last_number': 1718759.9160000002, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Roads &lt;--&gt; 233188', 'last_number': 233187.3265944647, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Substation &lt;--&gt; 10146960', 'last_number': 10146959.400482858, 'project_id_with_serial': 'WISDEM', 'module': 'SubstationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Transmission and Distribution &lt;--&gt; 4076658', 'last_number': 4076657.812919537, 'project_id_with_serial': 'WISDEM', 'module': 'GridConnectionCost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Total Number of Turbines', 'value': 120.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total trench length', 'value': 388.66358074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length', 'value': 388.66358074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Turbines Per String in Full String', 'value': 11.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Full Strings', 'value': 10.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Turbines in Partial String', 'value': 10.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Partial Strings', 'value': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Total number of strings full + partial', 'value': 11.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Trench Length to Substation (km)', 'value': 231.48558074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Cable Length to Substation (km)', 'value': 231.48558074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  AWG 1/0', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  AWG 1/0', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  AWG 1/0', 'value': 624488.188976378, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  AWG 4/0', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  AWG 4/0', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  AWG 4/0', 'value': 936732.283464567, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM 500', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM 500', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM 500', 'value': 1353057.7427821523, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM1000', 'value': 4.326, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM1000', 'value': 47.586, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM1000', 'value': 2497952.755905512, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM1250', 'value': 1.442, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM1250', 'value': 245.90558074952392, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM1250', 'value': 13715206.275399957, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'list', 'variable_df_key_col_name': 'Number of turbines per cable type in full strings [AWG 1/0  ,  AWG 4/0  ,  MCM 500  ,  MCM1000  ,  MCM1250]', 'value': '[3.0, 2.0, 2.0, 3.0, 1.0]', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '0 &lt;--&gt; Project manager &lt;--&gt; 119.0 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/project-manager-sr-construction-hourly?type=base; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 107100.0 &lt;--&gt; 120510.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '1 &lt;--&gt; Site manager &lt;--&gt; 112.2 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/construction-manager-ii-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 100980.0 &lt;--&gt; 114390.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '2 &lt;--&gt; Construction manager &lt;--&gt; 112.2 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/construction-manager-ii-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 100980.0 &lt;--&gt; 114390.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '3 &lt;--&gt; Project engineer &lt;--&gt; 93.5 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/project-engineer-iii-construction-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 84150.0 &lt;--&gt; 97560.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '4 &lt;--&gt; Safety or qc manager &lt;--&gt; 106.11764705882352 &lt;--&gt; 149 &lt;--&gt; (70% burden) https://www.salary.com/tools/salary-calculator/construction-site-safety-manager-hourly; plus 35% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 95505.88235294116 &lt;--&gt; 108915.88235294116', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '5 &lt;--&gt; Logistics manager &lt;--&gt; 99.9 &lt;--&gt; 149 &lt;--&gt; (50 % burden) https://www.salary.com/research/salary/benchmark/logistics-manager-hourly-wages; plus 35% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 89910.0 &lt;--&gt; 103320.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '6 &lt;--&gt; Office admin &lt;--&gt; 44.56249999999999 &lt;--&gt; 149 &lt;--&gt; (35% burden) https://www.salary.com/tools/salary-calculator/administrative-assistant-ii-hourly ; 25% for work on a ladder or a scaffold, in a crawl space, in a congested area or remote from the material storage point; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 40106.24999999999 &lt;--&gt; 53516.24999999999', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'list', 'variable_df_key_col_name': 'Percent length of cable in partial string [AWG 1/0  ,  AWG 4/0  ,  MCM 500  ,  MCM1000  ,  MCM1250]', 'value': '[1. 1. 1. 1. 0.]', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Collection &lt;--&gt; 2699750', 'last_number': 2699749.4435373386, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Collection &lt;--&gt; 5038117', 'last_number': 5038116.674477834, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Collection &lt;--&gt; 19127438', 'last_number': 19127437.246528566, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Collection &lt;--&gt; 1343266', 'last_number': 1343265.1682271871, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Equipment rental - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Labor - Development - 1000000', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Materials - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Mobilization - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Other - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Top-Big LR110000-Big PDW3B2 Derrick-3', 'last_number': 3, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Offload-LB 75-Hydraulic-2', 'last_number': 2, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Base-LR1750/2-SX3D4F2B Derrick (walk)-3', 'last_number': 3, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Top-Big LR110000-Big PDW3B2 Derrick-3.0', 'last_number': 3.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Offload-LB 75-Hydraulic-1.0', 'last_number': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Base-LR1750/2-SX3D4F2B Derrick (walk)-2.0', 'last_number': 2.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Nacelle - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Hub - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 1 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 2 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 3 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 1 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 2 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 3 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 4 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 5 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 6 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 7 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 8 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 9 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 10 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 11 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'Big LR110000 - Big PDW3B2 Derrick - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'LB 75 - Hydraulic - Offload', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'LR1750/2 - SX3D4F2B Derrick (walk) - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Equipment rental cost USD - 2452310.014545454', 'last_number': 2452310.014545454, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Equipment rental cost USD - 58546.0706713781', 'last_number': 58546.0706713781, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Equipment rental cost USD - 1167711.4293902244', 'last_number': 1167711.4293902244, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Fuel cost USD - 72540.0', 'last_number': 72540.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Fuel cost USD - 5544.0', 'last_number': 5544.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Fuel cost USD - 35343.0', 'last_number': 35343.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Labor cost USD without management - 3746069.9467044845', 'last_number': 3746069.9467044845, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Labor cost USD without management - 882394.6829100354', 'last_number': 882394.6829100354, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Labor cost USD without management - 2311965.0408416493', 'last_number': 2311965.0408416493, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Mobilization cost USD - 1621827.2', 'last_number': 1621827.2, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Mobilization cost USD - 32160.0', 'last_number': 32160.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Mobilization cost USD - 720386.0', 'last_number': 720386.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Subtotal for hourly labor (non-management) USD - 3228741.9467044845', 'last_number': 3228741.9467044845, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Subtotal for hourly labor (non-management) USD - 757234.6829100354', 'last_number': 757234.6829100354, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Subtotal for hourly labor (non-management) USD - 1992807.040841649', 'last_number': 1992807.040841649, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Subtotal for per diem labor (non-management) USD - 517328.0', 'last_number': 517328.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Subtotal for per diem labor (non-management) USD - 125160.0', 'last_number': 125160.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Subtotal for per diem labor (non-management) USD - 319158.0', 'last_number': 319158.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Total cost USD - 7892747.161249938', 'last_number': 7892747.161249938, 'project_id_with_serial': 'WISDEM', 'modul</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>The details from the run of LandBOSSE. This includes some costs, but mostly other things</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
           <t>landbosse.erection_crane_choice</t>
         </is>
       </c>
-      <c r="B1439" t="inlineStr">
+      <c r="B1441" t="inlineStr">
         <is>
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="C1439" t="inlineStr">
+      <c r="C1441" t="inlineStr">
         <is>
           <t xml:space="preserve">     Crane name              Boom system Operation
 0  Big LR110000       Big PDW3B2 Derrick       Top
@@ -37641,24 +37677,24 @@
 2      LR1750/2  SX3D4F2B Derrick (walk)      Base</t>
         </is>
       </c>
-      <c r="D1439" t="inlineStr">
+      <c r="D1441" t="inlineStr">
         <is>
           <t>The crane choices for erection.</t>
         </is>
       </c>
     </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
         <is>
           <t>landbosse.erection_component_name_topvbase</t>
         </is>
       </c>
-      <c r="B1440" t="inlineStr">
+      <c r="B1442" t="inlineStr">
         <is>
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="C1440" t="inlineStr">
+      <c r="C1442" t="inlineStr">
         <is>
           <t xml:space="preserve">  Component Operation
 0   Nacelle       Top
@@ -37679,24 +37715,24 @@
 5  Tower 11       Top</t>
         </is>
       </c>
-      <c r="D1440" t="inlineStr">
+      <c r="D1442" t="inlineStr">
         <is>
           <t>List of components and whether they are a topping or base operation</t>
         </is>
       </c>
     </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
         <is>
           <t>landbosse.erection_components</t>
         </is>
       </c>
-      <c r="B1441" t="inlineStr">
+      <c r="B1443" t="inlineStr">
         <is>
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="C1441" t="inlineStr">
+      <c r="C1443" t="inlineStr">
         <is>
           <t xml:space="preserve">  Component  Mass tonne  ...  Multiplier tower drag  Operation
 0   Nacelle  234.082584  ...                      0        Top
@@ -37718,47 +37754,47 @@
 [16 rows x 14 columns]</t>
         </is>
       </c>
-      <c r="D1441" t="inlineStr">
+      <c r="D1443" t="inlineStr">
         <is>
           <t>List of components with their values modified from the defaults.</t>
         </is>
       </c>
     </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
         <is>
           <t>financese.lcoe</t>
         </is>
       </c>
-      <c r="B1442" t="inlineStr">
+      <c r="B1444" t="inlineStr">
         <is>
           <t>USD/kW/h</t>
         </is>
       </c>
-      <c r="C1442" t="inlineStr">
+      <c r="C1444" t="inlineStr">
         <is>
           <t>[0.03804408]</t>
         </is>
       </c>
-      <c r="D1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
+      <c r="D1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
         <is>
           <t>financese.plant_aep</t>
         </is>
       </c>
-      <c r="B1443" t="inlineStr">
+      <c r="B1445" t="inlineStr">
         <is>
           <t>USD/kW/h</t>
         </is>
       </c>
-      <c r="C1443" t="inlineStr">
+      <c r="C1445" t="inlineStr">
         <is>
           <t>[2.52371058e+09]</t>
         </is>
       </c>
-      <c r="D1443" t="inlineStr"/>
+      <c r="D1445" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
